--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>370200.0588275869</v>
+        <v>286677.6019257315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11794270.92730509</v>
+        <v>11729499.65004505</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12586375.3659666</v>
+        <v>12496835.22309061</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7246633.637302823</v>
+        <v>7294756.248750458</v>
       </c>
     </row>
     <row r="11">
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="G11" t="n">
-        <v>239.8079481415051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H11" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>83.72603862143654</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>22.60648048446259</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I12" t="n">
-        <v>5.178660431576034</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>114.3541394883685</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>132.9267687173791</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>239.8079481415045</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C14" t="n">
-        <v>211.2228407230371</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>79.51149230610436</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>239.8079481415045</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.09723784409828568</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1694,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I15" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>51.80762708268464</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>239.8079481415045</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001187</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U16" t="n">
-        <v>239.8079481415045</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V16" t="n">
-        <v>132.9267687173774</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>20.64107630343904</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>332.9077478119528</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>323.6878872773841</v>
+        <v>332.9077478119528</v>
       </c>
       <c r="F17" t="n">
-        <v>323.6878872773841</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>323.6878872773841</v>
+        <v>187.1500577348356</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>106.0750865379323</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>332.9077478119528</v>
       </c>
       <c r="Y17" t="n">
-        <v>285.1042911139199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>59.27767444446454</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.406835138915</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>40.09845782143577</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.19791188974881</v>
       </c>
       <c r="S18" t="n">
-        <v>145.0872766768363</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.3245783303401</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8471817465226</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>104.5875507966166</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.2406932977184</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.18666766187662</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7762564192366</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>222.8165613819339</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2527717416242</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>323.6878872773841</v>
+        <v>332.9077478119528</v>
       </c>
       <c r="G20" t="n">
-        <v>323.6878872773841</v>
+        <v>332.9077478119528</v>
       </c>
       <c r="H20" t="n">
-        <v>312.068090538655</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>147.3111454152449</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>151.0694881993407</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>296.724087852649</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>103.9628121332954</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>32.39842558292788</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.24196099102505</v>
       </c>
       <c r="I21" t="n">
-        <v>40.09845782143577</v>
+        <v>39.51069121792256</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>145.0872766768363</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>194.3933882040508</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8471817465226</v>
+        <v>225.8460586256242</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>40.6310571768013</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>123.3185558085835</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>203.0967113032522</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>222.8165613819339</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2527717416242</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>209.8079516447482</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>201.0698744796565</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>65.70991267247047</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>365.4012472919481</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>134.3646350838602</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T24" t="n">
         <v>192.0665623188214</v>
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>137.7719996220913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.3066000448042</v>
@@ -2496,7 +2496,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I25" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2271541212006</v>
+        <v>95.89042502659743</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>106.5908076132626</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>199.1234916049276</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>206.5550650956816</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>209.0479027453597</v>
       </c>
     </row>
     <row r="29">
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>92.69404884498661</v>
+        <v>240.2092611640379</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2879,7 +2879,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554012</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838592</v>
       </c>
       <c r="T30" t="n">
         <v>192.0665623188214</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>220.7486959972119</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>167.8752337211361</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>152.5801449806295</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60.31599661131614</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>280.8123722162941</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H33" t="n">
-        <v>92.83156789269654</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
         <v>20.22295923705012</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838602</v>
       </c>
       <c r="T33" t="n">
         <v>192.0665623188214</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>25.5825202092598</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0.6009348307107223</v>
       </c>
       <c r="G34" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>187.7709202910285</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>59.48550737293884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I36" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838602</v>
       </c>
       <c r="T36" t="n">
         <v>192.0665623188214</v>
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
-        <v>1.781160222249645</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>187.123594315218</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>324.0553038026793</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>19.08535881736855</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.2229592370504</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T39" t="n">
-        <v>192.0665623188214</v>
+        <v>192.0665623188218</v>
       </c>
       <c r="U39" t="n">
         <v>225.8092030868072</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
-        <v>104.7965952039006</v>
+        <v>21.81989882877993</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>70.84780057981341</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>220.7486959972119</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>305.0126164572729</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>230.2994835575059</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3833,7 +3833,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>135.3343964518646</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H42" t="n">
         <v>92.83156789269626</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>220.7486959972119</v>
+        <v>110.6905642034429</v>
       </c>
       <c r="U43" t="n">
         <v>286.2271541212006</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>277.6137362772079</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>162.1462409286434</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,7 +3994,7 @@
         <v>411.547702772954</v>
       </c>
       <c r="H44" t="n">
-        <v>216.4305957177993</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>79.41653965146601</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>171.1971464172153</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>588.2168933305595</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C11" t="n">
-        <v>588.2168933305595</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D11" t="n">
-        <v>588.2168933305595</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E11" t="n">
-        <v>588.2168933305595</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F11" t="n">
-        <v>588.2168933305595</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G11" t="n">
-        <v>345.9866426825746</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H11" t="n">
-        <v>103.7563920345897</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I11" t="n">
-        <v>19.18463585132041</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J11" t="n">
-        <v>40.41888584470371</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K11" t="n">
-        <v>122.982040419296</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L11" t="n">
-        <v>262.3106962605492</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M11" t="n">
-        <v>449.0101090859568</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N11" t="n">
-        <v>643.3443219779392</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O11" t="n">
-        <v>813.5133472948987</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P11" t="n">
-        <v>924.2476725444252</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q11" t="n">
-        <v>959.2317925660203</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R11" t="n">
-        <v>959.2317925660203</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S11" t="n">
-        <v>803.0167550628485</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T11" t="n">
-        <v>588.2168933305595</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U11" t="n">
-        <v>588.2168933305595</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V11" t="n">
-        <v>588.2168933305595</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W11" t="n">
-        <v>588.2168933305595</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X11" t="n">
-        <v>588.2168933305595</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y11" t="n">
-        <v>588.2168933305595</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>791.0164555459523</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="C12" t="n">
-        <v>616.5634262648254</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="D12" t="n">
-        <v>467.6290166035741</v>
+        <v>609.1154303071141</v>
       </c>
       <c r="E12" t="n">
-        <v>308.3915615981186</v>
+        <v>449.8779753016586</v>
       </c>
       <c r="F12" t="n">
-        <v>161.8570036250036</v>
+        <v>303.3434173285435</v>
       </c>
       <c r="G12" t="n">
-        <v>24.41560598422549</v>
+        <v>165.9467308776107</v>
       </c>
       <c r="H12" t="n">
-        <v>24.41560598422549</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="I12" t="n">
-        <v>19.18463585132041</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J12" t="n">
-        <v>19.18463585132041</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K12" t="n">
-        <v>152.9092351450204</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L12" t="n">
-        <v>290.1388331607144</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M12" t="n">
-        <v>469.6361695153192</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N12" t="n">
-        <v>668.2929111679839</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O12" t="n">
-        <v>827.8052238367445</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P12" t="n">
-        <v>936.4948513640434</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q12" t="n">
-        <v>959.2317925660203</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R12" t="n">
-        <v>959.2317925660203</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S12" t="n">
-        <v>959.2317925660203</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T12" t="n">
-        <v>959.2317925660203</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U12" t="n">
-        <v>959.2317925660203</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="V12" t="n">
-        <v>959.2317925660203</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="W12" t="n">
-        <v>959.2317925660203</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="X12" t="n">
-        <v>959.2317925660203</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="Y12" t="n">
-        <v>959.2317925660203</v>
+        <v>631.9502590792986</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.18463585132041</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="C13" t="n">
-        <v>19.18463585132041</v>
+        <v>757.1268089128008</v>
       </c>
       <c r="D13" t="n">
-        <v>19.18463585132041</v>
+        <v>607.0101695004651</v>
       </c>
       <c r="E13" t="n">
-        <v>19.18463585132041</v>
+        <v>459.0970759180719</v>
       </c>
       <c r="F13" t="n">
-        <v>19.18463585132041</v>
+        <v>459.0970759180719</v>
       </c>
       <c r="G13" t="n">
-        <v>19.18463585132041</v>
+        <v>290.5277152730754</v>
       </c>
       <c r="H13" t="n">
-        <v>19.18463585132041</v>
+        <v>136.6063422065534</v>
       </c>
       <c r="I13" t="n">
-        <v>19.18463585132041</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J13" t="n">
-        <v>19.18463585132041</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K13" t="n">
-        <v>60.34504070228527</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L13" t="n">
-        <v>245.1780356031036</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M13" t="n">
-        <v>450.4476363223416</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N13" t="n">
-        <v>656.2710011584459</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O13" t="n">
-        <v>830.3658965470447</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P13" t="n">
-        <v>955.8134731456604</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q13" t="n">
-        <v>959.2317925660203</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R13" t="n">
-        <v>828.7538312854231</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S13" t="n">
-        <v>621.3135465378284</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T13" t="n">
-        <v>395.6843498501934</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="U13" t="n">
-        <v>153.4540992022084</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="V13" t="n">
-        <v>19.18463585132041</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="W13" t="n">
-        <v>19.18463585132041</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="X13" t="n">
-        <v>19.18463585132041</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.18463585132041</v>
+        <v>926.0629918407077</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>232.541040622065</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="C14" t="n">
-        <v>19.18463585132036</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="D14" t="n">
-        <v>19.18463585132036</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="E14" t="n">
-        <v>19.18463585132036</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="F14" t="n">
-        <v>19.18463585132036</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="G14" t="n">
-        <v>19.18463585132036</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="H14" t="n">
-        <v>19.18463585132036</v>
+        <v>101.4117490931552</v>
       </c>
       <c r="I14" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J14" t="n">
-        <v>40.41888584470325</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K14" t="n">
-        <v>122.9820404192954</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L14" t="n">
-        <v>262.3106962605484</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M14" t="n">
-        <v>449.0101090859556</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N14" t="n">
-        <v>643.3443219779376</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O14" t="n">
-        <v>813.5133472948968</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P14" t="n">
-        <v>924.2476725444232</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q14" t="n">
-        <v>959.231792566018</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R14" t="n">
-        <v>959.231792566018</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S14" t="n">
-        <v>959.231792566018</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T14" t="n">
-        <v>959.231792566018</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U14" t="n">
-        <v>959.231792566018</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="V14" t="n">
-        <v>959.231792566018</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="W14" t="n">
-        <v>959.231792566018</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="X14" t="n">
-        <v>717.0015419180337</v>
+        <v>634.1670622275112</v>
       </c>
       <c r="Y14" t="n">
-        <v>474.7712912700493</v>
+        <v>367.7894056603332</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>239.5425221421309</v>
+        <v>592.6684430277467</v>
       </c>
       <c r="C15" t="n">
-        <v>65.0894928610039</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="D15" t="n">
-        <v>65.0894928610039</v>
+        <v>418.2154137466196</v>
       </c>
       <c r="E15" t="n">
-        <v>65.0894928610039</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="F15" t="n">
-        <v>65.0894928610039</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="G15" t="n">
-        <v>65.0894928610039</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H15" t="n">
-        <v>65.0894928610039</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I15" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J15" t="n">
-        <v>19.18463585132036</v>
+        <v>117.4455628004802</v>
       </c>
       <c r="K15" t="n">
-        <v>86.79245551467723</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L15" t="n">
-        <v>290.1388331607131</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M15" t="n">
-        <v>469.6361695153178</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N15" t="n">
-        <v>668.2929111679822</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O15" t="n">
-        <v>827.8052238367426</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P15" t="n">
-        <v>936.4948513640412</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q15" t="n">
-        <v>959.231792566018</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R15" t="n">
-        <v>959.231792566018</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S15" t="n">
-        <v>959.231792566018</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T15" t="n">
-        <v>762.2424967261056</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U15" t="n">
-        <v>534.1037092372715</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V15" t="n">
-        <v>481.7727727901153</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W15" t="n">
-        <v>239.5425221421309</v>
+        <v>800.6181632778232</v>
       </c>
       <c r="X15" t="n">
-        <v>239.5425221421309</v>
+        <v>592.7666630722904</v>
       </c>
       <c r="Y15" t="n">
-        <v>239.5425221421309</v>
+        <v>592.7666630722904</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K16" t="n">
-        <v>60.34504070228357</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L16" t="n">
-        <v>245.1780356031018</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M16" t="n">
-        <v>450.4476363223396</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N16" t="n">
-        <v>656.2710011584438</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O16" t="n">
-        <v>830.3658965470427</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P16" t="n">
-        <v>955.8134731456582</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q16" t="n">
-        <v>959.231792566018</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R16" t="n">
-        <v>828.7538312854207</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S16" t="n">
-        <v>621.313546537826</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T16" t="n">
-        <v>395.684349850191</v>
+        <v>829.3864837640391</v>
       </c>
       <c r="U16" t="n">
-        <v>153.4540992022066</v>
+        <v>563.0088271968611</v>
       </c>
       <c r="V16" t="n">
-        <v>19.18463585132036</v>
+        <v>308.3243389909743</v>
       </c>
       <c r="W16" t="n">
-        <v>19.18463585132036</v>
+        <v>41.94668242379629</v>
       </c>
       <c r="X16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.18463585132036</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1006.767416671233</v>
+        <v>659.0900865771994</v>
       </c>
       <c r="C17" t="n">
-        <v>1006.767416671233</v>
+        <v>659.0900865771994</v>
       </c>
       <c r="D17" t="n">
-        <v>1006.767416671233</v>
+        <v>659.0900865771994</v>
       </c>
       <c r="E17" t="n">
-        <v>679.8099547748859</v>
+        <v>322.8196342418935</v>
       </c>
       <c r="F17" t="n">
-        <v>352.8524928785383</v>
+        <v>322.8196342418935</v>
       </c>
       <c r="G17" t="n">
-        <v>25.89503098219073</v>
+        <v>133.7791718834737</v>
       </c>
       <c r="H17" t="n">
-        <v>25.89503098219073</v>
+        <v>133.7791718834737</v>
       </c>
       <c r="I17" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="J17" t="n">
-        <v>71.51976202714695</v>
+        <v>74.93828788516544</v>
       </c>
       <c r="K17" t="n">
-        <v>190.6379251180829</v>
+        <v>198.0744806007377</v>
       </c>
       <c r="L17" t="n">
-        <v>375.3163014388256</v>
+        <v>387.7375779693252</v>
       </c>
       <c r="M17" t="n">
-        <v>612.4760162533288</v>
+        <v>630.4437554024771</v>
       </c>
       <c r="N17" t="n">
-        <v>858.0870315752118</v>
+        <v>881.6909809068267</v>
       </c>
       <c r="O17" t="n">
-        <v>1076.675287387798</v>
+        <v>1105.601350170612</v>
       </c>
       <c r="P17" t="n">
-        <v>1228.734305646853</v>
+        <v>1262.202669128819</v>
       </c>
       <c r="Q17" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="R17" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="S17" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="T17" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="U17" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="V17" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="W17" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="X17" t="n">
-        <v>1294.751549109536</v>
+        <v>995.3605389125053</v>
       </c>
       <c r="Y17" t="n">
-        <v>1006.767416671233</v>
+        <v>995.3605389125053</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>325.0368223112329</v>
+        <v>541.2154812975705</v>
       </c>
       <c r="C18" t="n">
-        <v>325.0368223112329</v>
+        <v>481.339042464778</v>
       </c>
       <c r="D18" t="n">
-        <v>325.0368223112329</v>
+        <v>332.4046328035267</v>
       </c>
       <c r="E18" t="n">
-        <v>165.7993673057774</v>
+        <v>173.1671777980712</v>
       </c>
       <c r="F18" t="n">
-        <v>165.7993673057774</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="G18" t="n">
-        <v>165.7993673057774</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="H18" t="n">
-        <v>66.39852373111576</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="I18" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="J18" t="n">
-        <v>34.25096127487561</v>
+        <v>161.4154228246733</v>
       </c>
       <c r="K18" t="n">
-        <v>290.5236338656227</v>
+        <v>305.6498437415878</v>
       </c>
       <c r="L18" t="n">
-        <v>461.1383766492205</v>
+        <v>479.9341931302623</v>
       </c>
       <c r="M18" t="n">
-        <v>679.5946022724204</v>
+        <v>702.6726765774251</v>
       </c>
       <c r="N18" t="n">
-        <v>918.2413590668268</v>
+        <v>945.715029818139</v>
       </c>
       <c r="O18" t="n">
-        <v>1114.336722906671</v>
+        <v>1145.831505656884</v>
       </c>
       <c r="P18" t="n">
-        <v>1252.387474217527</v>
+        <v>1287.109553854354</v>
       </c>
       <c r="Q18" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="R18" t="n">
-        <v>1294.751549109536</v>
+        <v>1321.330070147055</v>
       </c>
       <c r="S18" t="n">
-        <v>1148.198744385459</v>
+        <v>1321.330070147055</v>
       </c>
       <c r="T18" t="n">
-        <v>1148.198744385459</v>
+        <v>1125.042617288125</v>
       </c>
       <c r="U18" t="n">
-        <v>920.0702779748304</v>
+        <v>1125.042617288125</v>
       </c>
       <c r="V18" t="n">
-        <v>684.9181697430877</v>
+        <v>1125.042617288125</v>
       </c>
       <c r="W18" t="n">
-        <v>430.680813014886</v>
+        <v>1125.042617288125</v>
       </c>
       <c r="X18" t="n">
-        <v>325.0368223112329</v>
+        <v>917.1911170825924</v>
       </c>
       <c r="Y18" t="n">
-        <v>325.0368223112329</v>
+        <v>709.4308183176386</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.89503098219073</v>
+        <v>238.7163815230504</v>
       </c>
       <c r="C19" t="n">
-        <v>25.89503098219073</v>
+        <v>238.7163815230504</v>
       </c>
       <c r="D19" t="n">
-        <v>25.89503098219073</v>
+        <v>238.7163815230504</v>
       </c>
       <c r="E19" t="n">
-        <v>25.89503098219073</v>
+        <v>195.0934848948922</v>
       </c>
       <c r="F19" t="n">
-        <v>25.89503098219073</v>
+        <v>195.0934848948922</v>
       </c>
       <c r="G19" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="H19" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="I19" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="J19" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="K19" t="n">
-        <v>141.9194865171191</v>
+        <v>144.303255386663</v>
       </c>
       <c r="L19" t="n">
-        <v>345.9172783828527</v>
+        <v>350.4075909267261</v>
       </c>
       <c r="M19" t="n">
-        <v>571.3934703987784</v>
+        <v>578.1048378880148</v>
       </c>
       <c r="N19" t="n">
-        <v>796.9429589544875</v>
+        <v>805.822569666788</v>
       </c>
       <c r="O19" t="n">
-        <v>989.2581223637848</v>
+        <v>1000.14045663292</v>
       </c>
       <c r="P19" t="n">
-        <v>1130.296285902674</v>
+        <v>1142.892296155867</v>
       </c>
       <c r="Q19" t="n">
-        <v>1144.508719597452</v>
+        <v>1158.291190275266</v>
       </c>
       <c r="R19" t="n">
-        <v>1144.508719597452</v>
+        <v>1158.291190275266</v>
       </c>
       <c r="S19" t="n">
-        <v>1144.508719597452</v>
+        <v>1158.291190275266</v>
       </c>
       <c r="T19" t="n">
-        <v>919.4414858783266</v>
+        <v>1158.291190275266</v>
       </c>
       <c r="U19" t="n">
-        <v>919.4414858783266</v>
+        <v>869.1469763948376</v>
       </c>
       <c r="V19" t="n">
-        <v>664.7569976724398</v>
+        <v>869.1469763948376</v>
       </c>
       <c r="W19" t="n">
-        <v>375.3398276354791</v>
+        <v>869.1469763948376</v>
       </c>
       <c r="X19" t="n">
-        <v>147.3502767374618</v>
+        <v>641.1574254968202</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.3502767374618</v>
+        <v>420.3648463532901</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>995.0302482482748</v>
+        <v>699.173524495568</v>
       </c>
       <c r="C20" t="n">
-        <v>995.0302482482748</v>
+        <v>699.173524495568</v>
       </c>
       <c r="D20" t="n">
-        <v>995.0302482482748</v>
+        <v>699.173524495568</v>
       </c>
       <c r="E20" t="n">
-        <v>995.0302482482748</v>
+        <v>699.173524495568</v>
       </c>
       <c r="F20" t="n">
-        <v>668.0727863519272</v>
+        <v>362.9030721602621</v>
       </c>
       <c r="G20" t="n">
-        <v>341.1153244555796</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="H20" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="I20" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="J20" t="n">
-        <v>71.5197620271465</v>
+        <v>74.93828788516538</v>
       </c>
       <c r="K20" t="n">
-        <v>190.6379251180825</v>
+        <v>198.0744806007376</v>
       </c>
       <c r="L20" t="n">
-        <v>375.3163014388254</v>
+        <v>387.7375779693255</v>
       </c>
       <c r="M20" t="n">
-        <v>612.4760162533291</v>
+        <v>630.4437554024772</v>
       </c>
       <c r="N20" t="n">
-        <v>858.0870315752122</v>
+        <v>881.6909809068268</v>
       </c>
       <c r="O20" t="n">
-        <v>1076.675287387799</v>
+        <v>1105.601350170612</v>
       </c>
       <c r="P20" t="n">
-        <v>1228.734305646853</v>
+        <v>1262.202669128819</v>
       </c>
       <c r="Q20" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="R20" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="S20" t="n">
-        <v>1294.751549109536</v>
+        <v>1182.831854464735</v>
       </c>
       <c r="T20" t="n">
-        <v>1294.751549109536</v>
+        <v>1182.831854464735</v>
       </c>
       <c r="U20" t="n">
-        <v>1294.751549109536</v>
+        <v>1030.236411839139</v>
       </c>
       <c r="V20" t="n">
-        <v>1294.751549109536</v>
+        <v>699.173524495568</v>
       </c>
       <c r="W20" t="n">
-        <v>995.0302482482748</v>
+        <v>699.173524495568</v>
       </c>
       <c r="X20" t="n">
-        <v>995.0302482482748</v>
+        <v>699.173524495568</v>
       </c>
       <c r="Y20" t="n">
-        <v>995.0302482482748</v>
+        <v>699.173524495568</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>320.3458749411502</v>
+        <v>198.5023953723052</v>
       </c>
       <c r="C21" t="n">
-        <v>215.332933392367</v>
+        <v>198.5023953723052</v>
       </c>
       <c r="D21" t="n">
-        <v>66.39852373111576</v>
+        <v>198.5023953723052</v>
       </c>
       <c r="E21" t="n">
-        <v>66.39852373111576</v>
+        <v>165.7767129653074</v>
       </c>
       <c r="F21" t="n">
-        <v>66.39852373111576</v>
+        <v>165.7767129653074</v>
       </c>
       <c r="G21" t="n">
-        <v>66.39852373111576</v>
+        <v>165.7767129653074</v>
       </c>
       <c r="H21" t="n">
-        <v>66.39852373111576</v>
+        <v>66.54240893396891</v>
       </c>
       <c r="I21" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="J21" t="n">
-        <v>159.0810862618804</v>
+        <v>161.4154228246733</v>
       </c>
       <c r="K21" t="n">
-        <v>290.5236338656227</v>
+        <v>305.6498437415881</v>
       </c>
       <c r="L21" t="n">
-        <v>461.1383766492205</v>
+        <v>479.9341931302625</v>
       </c>
       <c r="M21" t="n">
-        <v>679.5946022724204</v>
+        <v>702.6726765774254</v>
       </c>
       <c r="N21" t="n">
-        <v>918.2413590668268</v>
+        <v>945.7150298181391</v>
       </c>
       <c r="O21" t="n">
-        <v>1114.336722906671</v>
+        <v>1145.831505656884</v>
       </c>
       <c r="P21" t="n">
-        <v>1252.387474217527</v>
+        <v>1287.109553854354</v>
       </c>
       <c r="Q21" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="R21" t="n">
-        <v>1294.751549109536</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="S21" t="n">
-        <v>1148.198744385459</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="T21" t="n">
-        <v>951.8417866035899</v>
+        <v>1331.630991247811</v>
       </c>
       <c r="U21" t="n">
-        <v>723.713320192961</v>
+        <v>1103.503659302736</v>
       </c>
       <c r="V21" t="n">
-        <v>488.5612119612182</v>
+        <v>868.3515510709935</v>
       </c>
       <c r="W21" t="n">
-        <v>488.5612119612182</v>
+        <v>614.114194342792</v>
       </c>
       <c r="X21" t="n">
-        <v>488.5612119612182</v>
+        <v>406.2626941372591</v>
       </c>
       <c r="Y21" t="n">
-        <v>488.5612119612182</v>
+        <v>198.5023953723052</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>361.7395439582531</v>
+        <v>174.5457134073494</v>
       </c>
       <c r="C22" t="n">
-        <v>361.7395439582531</v>
+        <v>174.5457134073494</v>
       </c>
       <c r="D22" t="n">
-        <v>320.6980720624942</v>
+        <v>174.5457134073494</v>
       </c>
       <c r="E22" t="n">
-        <v>172.7849784801011</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="F22" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="G22" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="H22" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="I22" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="J22" t="n">
-        <v>25.89503098219073</v>
+        <v>26.63261982495622</v>
       </c>
       <c r="K22" t="n">
-        <v>141.9194865171191</v>
+        <v>144.303255386663</v>
       </c>
       <c r="L22" t="n">
-        <v>345.9172783828527</v>
+        <v>350.4075909267261</v>
       </c>
       <c r="M22" t="n">
-        <v>571.3934703987784</v>
+        <v>578.1048378880148</v>
       </c>
       <c r="N22" t="n">
-        <v>796.9429589544875</v>
+        <v>805.822569666788</v>
       </c>
       <c r="O22" t="n">
-        <v>989.2581223637848</v>
+        <v>1000.14045663292</v>
       </c>
       <c r="P22" t="n">
-        <v>1130.296285902674</v>
+        <v>1142.892296155867</v>
       </c>
       <c r="Q22" t="n">
-        <v>1144.508719597452</v>
+        <v>1158.291190275266</v>
       </c>
       <c r="R22" t="n">
-        <v>1019.944521811004</v>
+        <v>1158.291190275266</v>
       </c>
       <c r="S22" t="n">
-        <v>814.7963285753956</v>
+        <v>1158.291190275266</v>
       </c>
       <c r="T22" t="n">
-        <v>589.7290948562704</v>
+        <v>1158.291190275266</v>
       </c>
       <c r="U22" t="n">
-        <v>589.7290948562704</v>
+        <v>869.1469763948376</v>
       </c>
       <c r="V22" t="n">
-        <v>589.7290948562704</v>
+        <v>614.4624881889507</v>
       </c>
       <c r="W22" t="n">
-        <v>589.7290948562704</v>
+        <v>402.5352643053667</v>
       </c>
       <c r="X22" t="n">
-        <v>361.7395439582531</v>
+        <v>174.5457134073494</v>
       </c>
       <c r="Y22" t="n">
-        <v>361.7395439582531</v>
+        <v>174.5457134073494</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>993.7429799877405</v>
+        <v>1255.834556068884</v>
       </c>
       <c r="C23" t="n">
-        <v>624.7804630473288</v>
+        <v>886.8720391284728</v>
       </c>
       <c r="D23" t="n">
-        <v>624.7804630473288</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="E23" t="n">
-        <v>624.7804630473288</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F23" t="n">
-        <v>624.7804630473288</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G23" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H23" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K23" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L23" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O23" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S23" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T23" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U23" t="n">
-        <v>2437.640120926627</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V23" t="n">
-        <v>2106.577233583056</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W23" t="n">
-        <v>1753.808578312942</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X23" t="n">
-        <v>1380.342820051862</v>
+        <v>1255.834556068884</v>
       </c>
       <c r="Y23" t="n">
-        <v>1380.342820051862</v>
+        <v>1255.834556068884</v>
       </c>
     </row>
     <row r="24">
@@ -6044,55 +6044,55 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E24" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G24" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J24" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>684.9695361605189</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L24" t="n">
-        <v>979.6730931919907</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M24" t="n">
-        <v>1456.147065963533</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.432194560478</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O24" t="n">
-        <v>2175.50262973664</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.685363568937</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q24" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R24" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S24" t="n">
         <v>2426.617474780096</v>
@@ -6101,7 +6101,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V24" t="n">
         <v>1769.368633815395</v>
@@ -6110,7 +6110,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y24" t="n">
         <v>1099.519478116707</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1057.910612541375</v>
+        <v>536.9083323241252</v>
       </c>
       <c r="C25" t="n">
-        <v>918.7469765594642</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="D25" t="n">
-        <v>768.6303371471284</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="E25" t="n">
-        <v>620.7172435647353</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="F25" t="n">
-        <v>473.8272960668249</v>
+        <v>367.9721493962183</v>
       </c>
       <c r="G25" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H25" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J25" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K25" t="n">
         <v>248.4064713020476</v>
@@ -6171,28 +6171,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R25" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S25" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T25" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U25" t="n">
-        <v>1347.327782578335</v>
+        <v>1240.37495057156</v>
       </c>
       <c r="V25" t="n">
-        <v>1347.327782578335</v>
+        <v>985.6904623656727</v>
       </c>
       <c r="W25" t="n">
-        <v>1057.910612541375</v>
+        <v>985.6904623656727</v>
       </c>
       <c r="X25" t="n">
-        <v>1057.910612541375</v>
+        <v>757.7009114676554</v>
       </c>
       <c r="Y25" t="n">
-        <v>1057.910612541375</v>
+        <v>536.9083323241252</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>420.2093035084148</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="C26" t="n">
-        <v>51.24678656800311</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D26" t="n">
-        <v>51.24678656800311</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E26" t="n">
-        <v>51.24678656800311</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F26" t="n">
-        <v>51.24678656800311</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G26" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H26" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K26" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S26" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T26" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U26" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V26" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W26" t="n">
-        <v>1291.481876182945</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X26" t="n">
-        <v>918.0161179218655</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y26" t="n">
-        <v>527.8767859460538</v>
+        <v>1634.970074863985</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E27" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F27" t="n">
-        <v>302.1446891756896</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G27" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J27" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K27" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L27" t="n">
-        <v>854.8429682049859</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M27" t="n">
-        <v>1218.104987164206</v>
+        <v>1233.591260505113</v>
       </c>
       <c r="N27" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O27" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q27" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S27" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T27" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>684.8214259065182</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C28" t="n">
-        <v>515.8852429786114</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D28" t="n">
-        <v>515.8852429786114</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E28" t="n">
-        <v>367.9721493962183</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F28" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G28" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J28" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K28" t="n">
         <v>248.4064713020476</v>
@@ -6408,28 +6408,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R28" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S28" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T28" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U28" t="n">
-        <v>905.6140050500484</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V28" t="n">
-        <v>905.6140050500484</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W28" t="n">
-        <v>905.6140050500484</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="X28" t="n">
-        <v>905.6140050500484</v>
+        <v>1057.910612541375</v>
       </c>
       <c r="Y28" t="n">
-        <v>684.8214259065182</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>597.0390406990323</v>
+        <v>1134.226501951988</v>
       </c>
       <c r="C29" t="n">
-        <v>597.0390406990323</v>
+        <v>1134.226501951988</v>
       </c>
       <c r="D29" t="n">
-        <v>597.0390406990323</v>
+        <v>775.9608033452378</v>
       </c>
       <c r="E29" t="n">
-        <v>211.250788100788</v>
+        <v>775.9608033452378</v>
       </c>
       <c r="F29" t="n">
-        <v>117.6204357321147</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G29" t="n">
         <v>117.6204357321147</v>
@@ -6469,10 +6469,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L29" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M29" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N29" t="n">
         <v>1656.671415230817</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T29" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U29" t="n">
-        <v>2100.01262627016</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V29" t="n">
-        <v>2100.01262627016</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W29" t="n">
-        <v>1747.243971000046</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="X29" t="n">
-        <v>1373.778212738966</v>
+        <v>1524.3658339278</v>
       </c>
       <c r="Y29" t="n">
-        <v>983.638880763154</v>
+        <v>1134.226501951988</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E30" t="n">
         <v>448.6792471488048</v>
@@ -6542,25 +6542,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J30" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>482.9033490193026</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L30" t="n">
-        <v>777.6069060507743</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M30" t="n">
-        <v>1140.868925009994</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.15405360694</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O30" t="n">
-        <v>1860.224488783102</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q30" t="n">
         <v>2538.001278676482</v>
@@ -6575,16 +6575,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1145.126459585383</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C31" t="n">
-        <v>1145.126459585383</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D31" t="n">
-        <v>1145.126459585383</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E31" t="n">
-        <v>1145.126459585383</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F31" t="n">
-        <v>1145.126459585383</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G31" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H31" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I31" t="n">
-        <v>977.1399948936612</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J31" t="n">
-        <v>1002.60916787878</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K31" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L31" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M31" t="n">
-        <v>1750.112669035317</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N31" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O31" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P31" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q31" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R31" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S31" t="n">
-        <v>2263.127174075599</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>2040.148693270334</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U31" t="n">
-        <v>1751.030355774172</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V31" t="n">
-        <v>1496.345867568285</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W31" t="n">
-        <v>1326.774924415622</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X31" t="n">
-        <v>1326.774924415622</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y31" t="n">
-        <v>1326.774924415622</v>
+        <v>198.1367340659135</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>466.9515368437143</v>
+        <v>1532.019095624403</v>
       </c>
       <c r="C32" t="n">
-        <v>466.9515368437143</v>
+        <v>1532.019095624403</v>
       </c>
       <c r="D32" t="n">
-        <v>466.9515368437143</v>
+        <v>1532.019095624403</v>
       </c>
       <c r="E32" t="n">
-        <v>466.9515368437143</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F32" t="n">
-        <v>466.9515368437143</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G32" t="n">
-        <v>51.24678656800311</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H32" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I32" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J32" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q32" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R32" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T32" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U32" t="n">
-        <v>1975.31341879663</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="V32" t="n">
-        <v>1644.250531453059</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="W32" t="n">
-        <v>1291.481876182945</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="X32" t="n">
-        <v>918.0161179218655</v>
+        <v>2308.758267664336</v>
       </c>
       <c r="Y32" t="n">
-        <v>527.8767859460538</v>
+        <v>1918.618935688524</v>
       </c>
     </row>
     <row r="33">
@@ -6755,55 +6755,55 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E33" t="n">
-        <v>448.6792471488051</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G33" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I33" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J33" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K33" t="n">
-        <v>560.1394111735142</v>
+        <v>482.9033490193035</v>
       </c>
       <c r="L33" t="n">
-        <v>854.8429682049859</v>
+        <v>777.6069060507753</v>
       </c>
       <c r="M33" t="n">
-        <v>1218.104987164206</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N33" t="n">
-        <v>1605.390115761151</v>
+        <v>1528.154053606941</v>
       </c>
       <c r="O33" t="n">
-        <v>1937.460550937313</v>
+        <v>1860.224488783103</v>
       </c>
       <c r="P33" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568937</v>
       </c>
       <c r="Q33" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R33" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S33" t="n">
         <v>2426.617474780096</v>
@@ -6818,7 +6818,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X33" t="n">
         <v>1307.279776881661</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>944.587906063767</v>
+        <v>201.9704308598446</v>
       </c>
       <c r="C34" t="n">
-        <v>918.7469765594642</v>
+        <v>201.9704308598446</v>
       </c>
       <c r="D34" t="n">
-        <v>768.6303371471284</v>
+        <v>51.85379144750891</v>
       </c>
       <c r="E34" t="n">
-        <v>620.7172435647353</v>
+        <v>51.85379144750891</v>
       </c>
       <c r="F34" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G34" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H34" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I34" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J34" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K34" t="n">
         <v>248.4064713020476</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T34" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U34" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V34" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W34" t="n">
-        <v>1347.028950037537</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X34" t="n">
-        <v>1347.028950037537</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y34" t="n">
-        <v>1126.236370894007</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1990.953909778728</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="C35" t="n">
-        <v>1621.991392838317</v>
+        <v>1272.660291726717</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.725694231566</v>
+        <v>914.3945931199664</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9374416333219</v>
+        <v>528.6063405217222</v>
       </c>
       <c r="F35" t="n">
-        <v>466.9515368437143</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G35" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H35" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I35" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J35" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L35" t="n">
         <v>795.7553530872924</v>
@@ -6967,22 +6967,22 @@
         <v>2437.640120926627</v>
       </c>
       <c r="T35" t="n">
-        <v>2437.640120926627</v>
+        <v>2247.972524673063</v>
       </c>
       <c r="U35" t="n">
-        <v>2437.640120926627</v>
+        <v>1994.391463937243</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.640120926627</v>
+        <v>1994.391463937243</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.640120926627</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="X35" t="n">
-        <v>2437.640120926627</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="Y35" t="n">
-        <v>2377.55374984285</v>
+        <v>1641.622808667129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C36" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D36" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E36" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F36" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G36" t="n">
-        <v>165.4432786182532</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H36" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I36" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J36" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K36" t="n">
-        <v>560.1394111735142</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L36" t="n">
-        <v>909.2465818694955</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M36" t="n">
-        <v>1272.508600828716</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N36" t="n">
-        <v>1659.793729425661</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O36" t="n">
-        <v>1991.864164601822</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P36" t="n">
         <v>2239.04689843412</v>
@@ -7043,25 +7043,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S36" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T36" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U36" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V36" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W36" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X36" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y36" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.04593830764924</v>
+        <v>834.9380653188541</v>
       </c>
       <c r="C37" t="n">
-        <v>53.04593830764924</v>
+        <v>666.0018823909472</v>
       </c>
       <c r="D37" t="n">
-        <v>53.04593830764924</v>
+        <v>515.8852429786115</v>
       </c>
       <c r="E37" t="n">
-        <v>53.04593830764924</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="F37" t="n">
-        <v>53.04593830764924</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G37" t="n">
-        <v>53.04593830764924</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H37" t="n">
-        <v>53.04593830764924</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I37" t="n">
         <v>51.24678656800313</v>
@@ -7122,25 +7122,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S37" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T37" t="n">
-        <v>1114.255484944676</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U37" t="n">
-        <v>825.137147448514</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V37" t="n">
-        <v>570.4526592426272</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="W37" t="n">
-        <v>281.0354892056666</v>
+        <v>1055.730644462384</v>
       </c>
       <c r="X37" t="n">
-        <v>53.04593830764924</v>
+        <v>1055.730644462384</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.04593830764924</v>
+        <v>834.9380653188541</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1283.357110060378</v>
+        <v>1641.622808667129</v>
       </c>
       <c r="C38" t="n">
-        <v>914.3945931199664</v>
+        <v>1272.660291726717</v>
       </c>
       <c r="D38" t="n">
         <v>914.3945931199664</v>
@@ -7201,25 +7201,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S38" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T38" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U38" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V38" t="n">
-        <v>2026.265097306304</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W38" t="n">
-        <v>1673.49644203619</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X38" t="n">
-        <v>1673.49644203619</v>
+        <v>2418.361980707062</v>
       </c>
       <c r="Y38" t="n">
-        <v>1283.357110060378</v>
+        <v>2028.22264873125</v>
       </c>
     </row>
     <row r="39">
@@ -7229,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542606</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488051</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756901</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G39" t="n">
-        <v>165.4432786182523</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057928</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I39" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J39" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K39" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L39" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M39" t="n">
-        <v>1227.201367341572</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N39" t="n">
-        <v>1614.486495938517</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O39" t="n">
-        <v>1946.556931114679</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P39" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q39" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R39" t="n">
         <v>2562.339328400155</v>
@@ -7286,16 +7286,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V39" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y39" t="n">
         <v>1099.519478116707</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>157.1019332386097</v>
+        <v>834.93213173611</v>
       </c>
       <c r="C40" t="n">
-        <v>157.1019332386097</v>
+        <v>834.93213173611</v>
       </c>
       <c r="D40" t="n">
-        <v>157.1019332386097</v>
+        <v>684.8154923237743</v>
       </c>
       <c r="E40" t="n">
-        <v>157.1019332386097</v>
+        <v>536.9023987413811</v>
       </c>
       <c r="F40" t="n">
-        <v>157.1019332386097</v>
+        <v>390.0124512434708</v>
       </c>
       <c r="G40" t="n">
-        <v>157.1019332386097</v>
+        <v>222.0259865517494</v>
       </c>
       <c r="H40" t="n">
-        <v>157.1019332386097</v>
+        <v>73.28708841525557</v>
       </c>
       <c r="I40" t="n">
         <v>51.24678656800311</v>
@@ -7356,28 +7356,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R40" t="n">
-        <v>1564.882685145393</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S40" t="n">
-        <v>1368.253937305254</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T40" t="n">
-        <v>1145.27545649999</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U40" t="n">
-        <v>856.1571190038273</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V40" t="n">
-        <v>856.1571190038273</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W40" t="n">
-        <v>566.7399489668668</v>
+        <v>834.93213173611</v>
       </c>
       <c r="X40" t="n">
-        <v>338.7503980688494</v>
+        <v>834.93213173611</v>
       </c>
       <c r="Y40" t="n">
-        <v>338.7503980688494</v>
+        <v>834.93213173611</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>728.3028554854582</v>
+        <v>1468.82888120725</v>
       </c>
       <c r="C41" t="n">
-        <v>359.3403385450464</v>
+        <v>1468.82888120725</v>
       </c>
       <c r="D41" t="n">
-        <v>51.24678656800313</v>
+        <v>1110.563182600499</v>
       </c>
       <c r="E41" t="n">
-        <v>51.24678656800313</v>
+        <v>1110.563182600499</v>
       </c>
       <c r="F41" t="n">
-        <v>51.24678656800313</v>
+        <v>699.5772778108919</v>
       </c>
       <c r="G41" t="n">
-        <v>51.24678656800313</v>
+        <v>283.8725275351808</v>
       </c>
       <c r="H41" t="n">
         <v>51.24678656800313</v>
@@ -7411,10 +7411,10 @@
         <v>51.24678656800313</v>
       </c>
       <c r="J41" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K41" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L41" t="n">
         <v>795.7553530872924</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S41" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T41" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U41" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V41" t="n">
-        <v>2231.276441056586</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W41" t="n">
-        <v>1878.507785786471</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X41" t="n">
-        <v>1505.042027525392</v>
+        <v>1855.428721271372</v>
       </c>
       <c r="Y41" t="n">
-        <v>1114.90269554958</v>
+        <v>1855.428721271372</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F42" t="n">
-        <v>302.144689175691</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G42" t="n">
         <v>165.443278618252</v>
@@ -7493,49 +7493,49 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K42" t="n">
-        <v>298.3188265310614</v>
+        <v>507.2413987429752</v>
       </c>
       <c r="L42" t="n">
-        <v>593.0223835625332</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M42" t="n">
-        <v>956.2844025217532</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N42" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O42" t="n">
-        <v>1675.63996629486</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P42" t="n">
-        <v>2214.708848710447</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R42" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S42" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T42" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1230.908235146662</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="C43" t="n">
-        <v>1230.908235146662</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="D43" t="n">
-        <v>1230.908235146662</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="E43" t="n">
-        <v>1082.995141564269</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F43" t="n">
-        <v>1082.995141564269</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G43" t="n">
-        <v>1082.995141564269</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H43" t="n">
-        <v>1082.995141564269</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I43" t="n">
-        <v>977.1399948936621</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J43" t="n">
-        <v>1002.609167878781</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K43" t="n">
-        <v>1174.299679627707</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L43" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M43" t="n">
-        <v>1750.112669035318</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N43" t="n">
-        <v>2048.981932571482</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O43" t="n">
-        <v>2309.019775324694</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P43" t="n">
-        <v>2508.006390496683</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q43" t="n">
-        <v>2562.339328400156</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>2459.755921915738</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S43" t="n">
-        <v>2459.755921915738</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T43" t="n">
-        <v>2236.777441110474</v>
+        <v>1328.00872152381</v>
       </c>
       <c r="U43" t="n">
-        <v>1947.659103614312</v>
+        <v>1038.890384027648</v>
       </c>
       <c r="V43" t="n">
-        <v>1692.974615408425</v>
+        <v>784.205895821761</v>
       </c>
       <c r="W43" t="n">
-        <v>1412.556699976901</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="X43" t="n">
-        <v>1412.556699976901</v>
+        <v>494.7887257848004</v>
       </c>
       <c r="Y43" t="n">
-        <v>1412.556699976901</v>
+        <v>494.7887257848004</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2209.570673130041</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="C44" t="n">
-        <v>1840.608156189629</v>
+        <v>1399.987221986177</v>
       </c>
       <c r="D44" t="n">
-        <v>1482.342457582879</v>
+        <v>1041.721523379426</v>
       </c>
       <c r="E44" t="n">
-        <v>1096.554204984634</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F44" t="n">
-        <v>685.5683001950267</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G44" t="n">
-        <v>269.8635499193156</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H44" t="n">
         <v>51.2467865680031</v>
@@ -7678,22 +7678,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T44" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U44" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V44" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="W44" t="n">
-        <v>2209.570673130041</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.570673130041</v>
+        <v>1768.949738926588</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.570673130041</v>
+        <v>1768.949738926588</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542602</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756897</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I45" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K45" t="n">
-        <v>298.3188265310614</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L45" t="n">
-        <v>593.0223835625332</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M45" t="n">
-        <v>1209.253210781439</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.432194560477</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O45" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q45" t="n">
         <v>2538.001278676482</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>833.0891146802707</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="C46" t="n">
-        <v>664.1529317523638</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="D46" t="n">
-        <v>514.036292340028</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="E46" t="n">
-        <v>366.1231987576349</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="F46" t="n">
-        <v>219.2332512597245</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="G46" t="n">
-        <v>51.2467865680031</v>
+        <v>131.4655134886758</v>
       </c>
       <c r="H46" t="n">
         <v>51.2467865680031</v>
@@ -7836,22 +7836,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T46" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U46" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V46" t="n">
-        <v>1636.446120074497</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W46" t="n">
-        <v>1463.519709552058</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X46" t="n">
-        <v>1235.53015865404</v>
+        <v>352.2580926322059</v>
       </c>
       <c r="Y46" t="n">
-        <v>1014.73757951051</v>
+        <v>131.4655134886758</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.92258334679383</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K2" t="n">
-        <v>56.54227989916996</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L2" t="n">
-        <v>32.8711910981084</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M2" t="n">
-        <v>4.586202945486093</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O2" t="n">
-        <v>13.46996085601003</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P2" t="n">
-        <v>46.34579576917247</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.46310250126157</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>61.84452414151257</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K3" t="n">
-        <v>26.75787480980772</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.612367688219109</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q3" t="n">
-        <v>52.16972933916271</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>62.00809140979796</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L4" t="n">
-        <v>49.14113189899257</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M4" t="n">
-        <v>48.52123852856002</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N4" t="n">
-        <v>39.43061707215854</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O4" t="n">
-        <v>56.93882853040725</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P4" t="n">
-        <v>67.97552059180406</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.92258334679384</v>
+        <v>79.82100350776379</v>
       </c>
       <c r="K5" t="n">
-        <v>56.54227989916996</v>
+        <v>68.37996426625614</v>
       </c>
       <c r="L5" t="n">
-        <v>32.8711910981084</v>
+        <v>47.55688531513388</v>
       </c>
       <c r="M5" t="n">
-        <v>4.586202945486122</v>
+        <v>20.92686739226636</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16.60507348116786</v>
       </c>
       <c r="O5" t="n">
-        <v>13.46996085601006</v>
+        <v>29.14966087982927</v>
       </c>
       <c r="P5" t="n">
-        <v>46.34579576917247</v>
+        <v>59.72805697682125</v>
       </c>
       <c r="Q5" t="n">
-        <v>83.46310250126157</v>
+        <v>93.51262335026308</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>61.84452414151258</v>
+        <v>66.54876907979121</v>
       </c>
       <c r="K6" t="n">
-        <v>26.75787480980772</v>
+        <v>34.79817869043559</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.612367688219109</v>
+        <v>12.12044141380176</v>
       </c>
       <c r="Q6" t="n">
-        <v>52.16972933916271</v>
+        <v>58.52562482607891</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>62.00809140979796</v>
+        <v>66.85797092510069</v>
       </c>
       <c r="L7" t="n">
-        <v>49.14113189899257</v>
+        <v>55.34730792350439</v>
       </c>
       <c r="M7" t="n">
-        <v>48.52123852856002</v>
+        <v>55.06478097631943</v>
       </c>
       <c r="N7" t="n">
-        <v>39.43061707215854</v>
+        <v>45.81856870604673</v>
       </c>
       <c r="O7" t="n">
-        <v>56.93882853040726</v>
+        <v>62.83913578423567</v>
       </c>
       <c r="P7" t="n">
-        <v>67.97552059180407</v>
+        <v>73.02425275703001</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K8" t="n">
         <v>56.54227989916996</v>
@@ -8461,13 +8461,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P8" t="n">
         <v>46.34579576917247</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K9" t="n">
         <v>26.75787480980772</v>
@@ -8625,10 +8625,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928383</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K12" t="n">
-        <v>66.78462588923537</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>46.25131710763744</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>162.4747015415544</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928469</v>
+        <v>99.37288961069063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>66.78462588923455</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>46.25131710763584</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>162.4747015415544</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>47.48234278366493</v>
+        <v>45.47810137061686</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>165.4911435178067</v>
+        <v>49.56452952427699</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>47.48234278366493</v>
+        <v>45.47810137061688</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>39.40010817739793</v>
+        <v>49.56452952427739</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>114.3555089013357</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>154.0169020165197</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>240.4465442417435</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>186.4490126143851</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,10 +10208,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>168.743458178064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>186.449012614386</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>54.95314511566511</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>54.95314511566619</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>193.3273467878357</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,16 +10901,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>21.18099370047463</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>211.0329012241554</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>294.8344935184741</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>255.5240487471569</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>249.3877325071647</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.0170240739369</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H2" t="n">
-        <v>326.3074893360965</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I2" t="n">
-        <v>160.9084221286138</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>69.10542099048567</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S2" t="n">
-        <v>179.7218745449422</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T2" t="n">
-        <v>217.4676389752864</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H3" t="n">
-        <v>105.5916109993956</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I3" t="n">
-        <v>65.71175959472041</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>57.4466155766215</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S3" t="n">
-        <v>158.905408270449</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T3" t="n">
-        <v>197.3919390740697</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H4" t="n">
-        <v>157.0995470698808</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I4" t="n">
-        <v>138.1067275372333</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J4" t="n">
-        <v>52.58459624356987</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>37.86903925848996</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R4" t="n">
-        <v>151.3616578248528</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S4" t="n">
-        <v>213.9658230228616</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T4" t="n">
-        <v>225.481393154608</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.0170240739369</v>
+        <v>414.1100848867438</v>
       </c>
       <c r="H5" t="n">
-        <v>326.3074893360965</v>
+        <v>327.2605483852552</v>
       </c>
       <c r="I5" t="n">
-        <v>160.9084221286138</v>
+        <v>164.496149114352</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>69.10542099048568</v>
+        <v>74.95115227296735</v>
       </c>
       <c r="S5" t="n">
-        <v>179.7218745449422</v>
+        <v>181.8424978167795</v>
       </c>
       <c r="T5" t="n">
-        <v>217.4676389752864</v>
+        <v>217.8750126833486</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2427958325407</v>
+        <v>251.2502406975652</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.6555998253092</v>
+        <v>136.7053917498219</v>
       </c>
       <c r="H6" t="n">
-        <v>105.5916109993956</v>
+        <v>106.0724961650838</v>
       </c>
       <c r="I6" t="n">
-        <v>65.71175959472041</v>
+        <v>67.42608682026646</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>57.4466155766215</v>
+        <v>60.5380826090839</v>
       </c>
       <c r="S6" t="n">
-        <v>158.905408270449</v>
+        <v>159.8302714297086</v>
       </c>
       <c r="T6" t="n">
-        <v>197.3919390740697</v>
+        <v>197.5926354715572</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8961243613761</v>
+        <v>225.8994001458834</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4142525710033</v>
+        <v>167.4559964478956</v>
       </c>
       <c r="H7" t="n">
-        <v>157.0995470698808</v>
+        <v>157.4706880844321</v>
       </c>
       <c r="I7" t="n">
-        <v>138.1067275372333</v>
+        <v>139.362079762321</v>
       </c>
       <c r="J7" t="n">
-        <v>52.58459624356988</v>
+        <v>55.53588833985387</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>37.86903925848996</v>
+        <v>41.36451971353327</v>
       </c>
       <c r="R7" t="n">
-        <v>151.3616578248528</v>
+        <v>153.2386143258456</v>
       </c>
       <c r="S7" t="n">
-        <v>213.9658230228616</v>
+        <v>214.6933049501571</v>
       </c>
       <c r="T7" t="n">
-        <v>225.481393154608</v>
+        <v>225.6597533558751</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2875715317206</v>
+        <v>286.2898484704602</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S8" t="n">
         <v>179.7218745449422</v>
@@ -23202,7 +23202,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>174.596860236385</v>
       </c>
       <c r="G11" t="n">
-        <v>173.1089558044317</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H11" t="n">
-        <v>75.23293593371048</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I11" t="n">
-        <v>34.77000227245377</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>143.9267031654047</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23354,10 +23354,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664345</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>40.26714800801064</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23405,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>123.266557879417</v>
+        <v>7.796434036440004</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176898</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U13" t="n">
-        <v>46.45270651659192</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V13" t="n">
-        <v>119.2108746064489</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>142.9258935219761</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C14" t="n">
-        <v>154.0500510479704</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>35.79512724079272</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>129.9231525369645</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>146.4299905145491</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>166.4359458057691</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23582,19 +23582,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183515</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V15" t="n">
-        <v>180.9929600667406</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>11.88703501941509</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176904</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>46.45270651659249</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V16" t="n">
-        <v>119.2108746064506</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>205.0685790855981</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>49.82609385152779</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>58.24248279487767</v>
+        <v>49.02262226030899</v>
       </c>
       <c r="F17" t="n">
-        <v>83.18815846432733</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>88.93874023388304</v>
+        <v>225.4446633602884</v>
       </c>
       <c r="H17" t="n">
-        <v>312.068090538655</v>
+        <v>311.7413289543296</v>
       </c>
       <c r="I17" t="n">
-        <v>107.3051586462886</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>148.0382128731055</v>
+        <v>147.3111454152449</v>
       </c>
       <c r="T17" t="n">
-        <v>211.3811780221996</v>
+        <v>211.2415076855333</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1315641075271</v>
+        <v>251.1290115942356</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>36.82335286651625</v>
       </c>
       <c r="Y17" t="n">
-        <v>101.1336475421337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>113.4308245438512</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9116720795373</v>
+        <v>135.8946006418812</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.24196099102505</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>39.51069121792255</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.25783851896323</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>144.7701822098454</v>
       </c>
       <c r="T18" t="n">
-        <v>194.3933882040508</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8460586256242</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>101.1854344068608</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.59128688421895</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.2472949846926</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7905685391008</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.5544290407843</v>
+        <v>151.4271812841736</v>
       </c>
       <c r="I19" t="n">
-        <v>119.3508477414753</v>
+        <v>118.9204432641051</v>
       </c>
       <c r="J19" t="n">
-        <v>8.490135188065096</v>
+        <v>7.478268313667343</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>123.3185558085835</v>
+        <v>122.6750308554175</v>
       </c>
       <c r="S19" t="n">
-        <v>203.0967113032522</v>
+        <v>202.8472900870736</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>222.7554095970596</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2535524027077</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>83.18815846432733</v>
+        <v>73.96829792975865</v>
       </c>
       <c r="G20" t="n">
-        <v>88.93874023388304</v>
+        <v>79.68697328317126</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>311.7413289543296</v>
       </c>
       <c r="I20" t="n">
-        <v>107.3051586462886</v>
+        <v>106.0750865379323</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>148.0382128731055</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.3811780221996</v>
+        <v>211.2415076855333</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1315641075271</v>
+        <v>100.0595233948949</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>52.516880864764</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,25 +24047,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>68.74568685502038</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>125.2466548724731</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9116720795373</v>
+        <v>135.8946006418812</v>
       </c>
       <c r="H21" t="n">
-        <v>98.406835138915</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.25783851896323</v>
+        <v>10.19791188974882</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>144.7701822098454</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.3245783303401</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>107.984415841411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7905685391008</v>
+        <v>166.7762564192366</v>
       </c>
       <c r="H22" t="n">
-        <v>151.5544290407843</v>
+        <v>151.4271812841736</v>
       </c>
       <c r="I22" t="n">
-        <v>119.3508477414753</v>
+        <v>118.9204432641051</v>
       </c>
       <c r="J22" t="n">
-        <v>8.490135188065096</v>
+        <v>7.478268313667357</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>122.6750308554176</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>202.8472900870737</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>222.7554095970596</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2535524027077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>76.71504669184284</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>210.4778282932974</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T23" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U23" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>4.329853386520938</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>29.47482147653656</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>190.3367290946032</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.143034050218</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>187.114447051126</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I28" t="n">
         <v>104.7965952039006</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
-        <v>79.67208902551903</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>9.536750606735097</v>
       </c>
     </row>
     <row r="29">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>314.1819968967249</v>
+        <v>166.6667845776736</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H31" t="n">
         <v>147.2515091551288</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>118.6477646154549</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>66.00450837146525</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>322.4178450521645</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>101.1179978559677</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>141.664300889368</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>144.8201131922205</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>206.6581849802338</v>
+        <v>18.88726468920524</v>
       </c>
       <c r="U35" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>326.7524312831147</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,25 +25314,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>103.0154349816509</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>99.39940402137299</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25441,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
-        <v>3.6969546674556</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>350.6457418611005</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.97669637512064</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>30.70977183976021</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>49.67042516341007</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>301.0185525624054</v>
+        <v>70.71906900489952</v>
       </c>
       <c r="I41" t="n">
         <v>65.70991267247047</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0581317937691</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>8.909262059383082</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>219.7841291436184</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>84.58795684460605</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I44" t="n">
         <v>65.70991267247047</v>
@@ -25918,16 +25918,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>147.2515091551288</v>
+        <v>67.83496950366283</v>
       </c>
       <c r="I46" t="n">
         <v>104.7965952039006</v>
@@ -26076,16 +26076,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T46" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>115.3258519193757</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>332558.4370874788</v>
+        <v>333897.2422785219</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>332558.4370874788</v>
+        <v>333897.2422785219</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>532290.3838561787</v>
+        <v>552142.5355463979</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>532290.3838561784</v>
+        <v>552142.5355463979</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>596032.9455561533</v>
+        <v>602780.2595589274</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>596032.9455561535</v>
+        <v>602780.2595589269</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>826478.5981064701</v>
+        <v>826478.5981064702</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>826478.5981064702</v>
+        <v>826478.5981064703</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>826478.5981064701</v>
+        <v>826478.5981064702</v>
       </c>
     </row>
     <row r="16">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101620.6442196286</v>
+        <v>100952.6603979177</v>
       </c>
       <c r="C2" t="n">
+        <v>100952.6603979177</v>
+      </c>
+      <c r="D2" t="n">
         <v>101620.6442196285</v>
       </c>
-      <c r="D2" t="n">
-        <v>101620.6442196286</v>
-      </c>
       <c r="E2" t="n">
-        <v>167228.6351463481</v>
+        <v>173371.5940175455</v>
       </c>
       <c r="F2" t="n">
-        <v>167228.6351463479</v>
+        <v>173371.5940175455</v>
       </c>
       <c r="G2" t="n">
-        <v>187265.5901788028</v>
+        <v>189401.5272737741</v>
       </c>
       <c r="H2" t="n">
-        <v>187265.5901788028</v>
+        <v>189401.527273774</v>
       </c>
       <c r="I2" t="n">
         <v>260075.8859201623</v>
@@ -26343,10 +26343,10 @@
         <v>260075.8859201623</v>
       </c>
       <c r="L2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="M2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201624</v>
       </c>
       <c r="N2" t="n">
         <v>260075.8859201623</v>
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308183.8838205543</v>
+        <v>285877.3248289937</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19825.02250612895</v>
       </c>
       <c r="E3" t="n">
-        <v>291456.5305751138</v>
+        <v>315127.476685547</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79129.66401560625</v>
+        <v>65275.29190157534</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>286294.2325270078</v>
+        <v>277868.1191860285</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>59761.0999086557</v>
+        <v>65718.55375189535</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>20185.79123298858</v>
+        <v>16651.57348245184</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15741.13452040118</v>
+        <v>19162.477508543</v>
       </c>
       <c r="C4" t="n">
-        <v>15741.13452040118</v>
+        <v>19162.477508543</v>
       </c>
       <c r="D4" t="n">
         <v>15741.13452040118</v>
       </c>
       <c r="E4" t="n">
-        <v>11138.47116666976</v>
+        <v>11859.77526465972</v>
       </c>
       <c r="F4" t="n">
-        <v>11138.47116666973</v>
+        <v>11859.77526465972</v>
       </c>
       <c r="G4" t="n">
-        <v>12480.15218262645</v>
+        <v>12575.52330959163</v>
       </c>
       <c r="H4" t="n">
-        <v>12480.15218262645</v>
+        <v>12575.52330959164</v>
       </c>
       <c r="I4" t="n">
+        <v>16175.59256035157</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16175.59256035158</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16175.59256035157</v>
+      </c>
+      <c r="L4" t="n">
         <v>16175.59256035159</v>
       </c>
-      <c r="J4" t="n">
-        <v>16175.59256035157</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>16175.59256035158</v>
-      </c>
-      <c r="L4" t="n">
-        <v>16175.59256035157</v>
-      </c>
-      <c r="M4" t="n">
-        <v>16175.59256035159</v>
       </c>
       <c r="N4" t="n">
         <v>16175.59256035157</v>
       </c>
       <c r="O4" t="n">
-        <v>16175.59256035159</v>
+        <v>16175.59256035157</v>
       </c>
       <c r="P4" t="n">
-        <v>16175.59256035156</v>
+        <v>16175.59256035157</v>
       </c>
     </row>
     <row r="5">
@@ -26469,37 +26469,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40599.70256325733</v>
+        <v>40095.05704060869</v>
       </c>
       <c r="C5" t="n">
-        <v>40599.70256325733</v>
+        <v>40095.05704060869</v>
       </c>
       <c r="D5" t="n">
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>27518.10223437333</v>
+        <v>29420.2032042662</v>
       </c>
       <c r="F5" t="n">
-        <v>27518.10223437328</v>
+        <v>29420.2032042662</v>
       </c>
       <c r="G5" t="n">
-        <v>34192.09906993962</v>
+        <v>34925.68710858132</v>
       </c>
       <c r="H5" t="n">
-        <v>34192.09906993962</v>
+        <v>34925.68710858132</v>
       </c>
       <c r="I5" t="n">
+        <v>59310.17243984472</v>
+      </c>
+      <c r="J5" t="n">
         <v>59310.17243984473</v>
-      </c>
-      <c r="J5" t="n">
-        <v>59310.17243984472</v>
       </c>
       <c r="K5" t="n">
         <v>59310.17243984472</v>
       </c>
       <c r="L5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="M5" t="n">
         <v>59310.17243984473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-262904.0766845842</v>
+        <v>-258769.851438722</v>
       </c>
       <c r="C6" t="n">
-        <v>45279.80713597005</v>
+        <v>27107.47339027169</v>
       </c>
       <c r="D6" t="n">
-        <v>45279.80713597008</v>
+        <v>10906.42533732981</v>
       </c>
       <c r="E6" t="n">
-        <v>-162884.4688298088</v>
+        <v>-193363.576323679</v>
       </c>
       <c r="F6" t="n">
-        <v>128572.0617453054</v>
+        <v>121763.9003618681</v>
       </c>
       <c r="G6" t="n">
-        <v>61463.67491063046</v>
+        <v>67240.24701764071</v>
       </c>
       <c r="H6" t="n">
-        <v>140593.3389262367</v>
+        <v>132515.538919216</v>
       </c>
       <c r="I6" t="n">
-        <v>-101704.1116070418</v>
+        <v>-98505.46098795415</v>
       </c>
       <c r="J6" t="n">
-        <v>184590.120919966</v>
+        <v>179362.6581980743</v>
       </c>
       <c r="K6" t="n">
-        <v>184590.120919966</v>
+        <v>179362.6581980743</v>
       </c>
       <c r="L6" t="n">
-        <v>184590.1209199659</v>
+        <v>179362.6581980744</v>
       </c>
       <c r="M6" t="n">
-        <v>124829.0210113103</v>
+        <v>113644.1044461791</v>
       </c>
       <c r="N6" t="n">
-        <v>184590.1209199662</v>
+        <v>179362.6581980743</v>
       </c>
       <c r="O6" t="n">
-        <v>164404.3296869773</v>
+        <v>162711.0847156224</v>
       </c>
       <c r="P6" t="n">
-        <v>184590.1209199659</v>
+        <v>179362.6581980743</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.8212184980426</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="C3" t="n">
-        <v>319.8212184980426</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="D3" t="n">
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380646</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="G3" t="n">
-        <v>665.6823634621409</v>
+        <v>673.6190844777334</v>
       </c>
       <c r="H3" t="n">
-        <v>665.6823634621409</v>
+        <v>673.6190844777333</v>
       </c>
       <c r="I3" t="n">
         <v>934.0648921175393</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>239.8079481415051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F4" t="n">
-        <v>239.8079481415045</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G4" t="n">
-        <v>323.6878872773841</v>
+        <v>332.9077478119528</v>
       </c>
       <c r="H4" t="n">
-        <v>323.6878872773841</v>
+        <v>332.9077478119528</v>
       </c>
       <c r="I4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000391</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="L4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M4" t="n">
         <v>640.5848321000391</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.8212184980426</v>
+        <v>296.6723413123253</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.14887718571737</v>
       </c>
       <c r="E3" t="n">
-        <v>273.6548818400224</v>
+        <v>294.2337952714357</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.587667540470378e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>72.20626312407626</v>
+        <v>59.56407070825504</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>268.3825286553985</v>
+        <v>260.445807639806</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>239.8079481415051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>83.87993913587958</v>
+        <v>69.19386781044659</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>316.896944822655</v>
+        <v>307.6770842880861</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>239.8079481415053</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>83.8799391358797</v>
+        <v>69.19386781044682</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>239.8079481415051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>83.87993913587958</v>
+        <v>69.19386781044659</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.28571344119816</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H2" t="n">
-        <v>13.16731277967066</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I2" t="n">
-        <v>49.56746744179212</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J2" t="n">
-        <v>109.1233211798925</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K2" t="n">
-        <v>163.5475711458106</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L2" t="n">
-        <v>202.8952238718788</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M2" t="n">
-        <v>225.7600302817866</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O2" t="n">
-        <v>216.6282505656767</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P2" t="n">
-        <v>184.8871999860971</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q2" t="n">
-        <v>138.8425873731879</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R2" t="n">
-        <v>80.76369695066401</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S2" t="n">
-        <v>29.29819504130311</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T2" t="n">
-        <v>5.62821058884495</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H3" t="n">
-        <v>6.643833237100848</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I3" t="n">
-        <v>23.68487325669467</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J3" t="n">
-        <v>64.99310252515413</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K3" t="n">
-        <v>111.0835641645513</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>131.3620397261111</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q3" t="n">
-        <v>87.8120447468588</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R3" t="n">
-        <v>42.71121857602163</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S3" t="n">
-        <v>12.77776283338877</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T3" t="n">
-        <v>2.772789620751897</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H4" t="n">
-        <v>5.127625437558785</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I4" t="n">
-        <v>17.343747390025</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J4" t="n">
-        <v>40.77458387310291</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K4" t="n">
-        <v>67.00516676073742</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L4" t="n">
-        <v>85.74354438224572</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M4" t="n">
-        <v>90.40454541904504</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N4" t="n">
-        <v>88.25492739307465</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O4" t="n">
-        <v>81.51770992143554</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P4" t="n">
-        <v>69.75248345734356</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q4" t="n">
-        <v>48.29300399320443</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R4" t="n">
-        <v>25.93173355231669</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S4" t="n">
-        <v>10.05077501411061</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T4" t="n">
-        <v>2.464196273673442</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.28571344119816</v>
+        <v>1.192652628391256</v>
       </c>
       <c r="H5" t="n">
-        <v>13.16731277967066</v>
+        <v>12.21425373051196</v>
       </c>
       <c r="I5" t="n">
-        <v>49.56746744179212</v>
+        <v>45.97974045605396</v>
       </c>
       <c r="J5" t="n">
-        <v>109.1233211798924</v>
+        <v>101.2249010189225</v>
       </c>
       <c r="K5" t="n">
-        <v>163.5475711458106</v>
+        <v>151.7098867787244</v>
       </c>
       <c r="L5" t="n">
-        <v>202.8952238718788</v>
+        <v>188.2095296548534</v>
       </c>
       <c r="M5" t="n">
-        <v>225.7600302817866</v>
+        <v>209.4193658350064</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>212.8079901154231</v>
       </c>
       <c r="O5" t="n">
-        <v>216.6282505656767</v>
+        <v>200.9485505418575</v>
       </c>
       <c r="P5" t="n">
-        <v>184.8871999860971</v>
+        <v>171.5049387784483</v>
       </c>
       <c r="Q5" t="n">
-        <v>138.8425873731879</v>
+        <v>128.7930665241864</v>
       </c>
       <c r="R5" t="n">
-        <v>80.763696950664</v>
+        <v>74.91796566818233</v>
       </c>
       <c r="S5" t="n">
-        <v>29.2981950413031</v>
+        <v>27.17757176946579</v>
       </c>
       <c r="T5" t="n">
-        <v>5.628210588844949</v>
+        <v>5.220836880782728</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1028570752958528</v>
+        <v>0.09541221027130049</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6381254133887752</v>
       </c>
       <c r="H6" t="n">
-        <v>6.643833237100848</v>
+        <v>6.162948071412645</v>
       </c>
       <c r="I6" t="n">
-        <v>23.68487325669467</v>
+        <v>21.97054603114862</v>
       </c>
       <c r="J6" t="n">
-        <v>64.99310252515411</v>
+        <v>60.28885758687547</v>
       </c>
       <c r="K6" t="n">
-        <v>111.0835641645513</v>
+        <v>103.0432602839234</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -31384,22 +31384,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>131.3620397261111</v>
+        <v>121.8539660005285</v>
       </c>
       <c r="Q6" t="n">
-        <v>87.8120447468588</v>
+        <v>81.45614925994261</v>
       </c>
       <c r="R6" t="n">
-        <v>42.71121857602163</v>
+        <v>39.61975154355923</v>
       </c>
       <c r="S6" t="n">
-        <v>12.77776283338877</v>
+        <v>11.85289967412921</v>
       </c>
       <c r="T6" t="n">
-        <v>2.772789620751896</v>
+        <v>2.572093223264404</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.0419819350913668</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5349829105632095</v>
       </c>
       <c r="H7" t="n">
-        <v>5.127625437558784</v>
+        <v>4.756484423007447</v>
       </c>
       <c r="I7" t="n">
-        <v>17.343747390025</v>
+        <v>16.08839516493725</v>
       </c>
       <c r="J7" t="n">
-        <v>40.7745838731029</v>
+        <v>37.82329177681891</v>
       </c>
       <c r="K7" t="n">
-        <v>67.00516676073742</v>
+        <v>62.15528724543469</v>
       </c>
       <c r="L7" t="n">
-        <v>85.74354438224572</v>
+        <v>79.5373683577339</v>
       </c>
       <c r="M7" t="n">
-        <v>90.40454541904504</v>
+        <v>83.86100297128563</v>
       </c>
       <c r="N7" t="n">
-        <v>88.25492739307465</v>
+        <v>81.86697575918646</v>
       </c>
       <c r="O7" t="n">
-        <v>81.51770992143553</v>
+        <v>75.61740266760712</v>
       </c>
       <c r="P7" t="n">
-        <v>69.75248345734354</v>
+        <v>64.7037512921176</v>
       </c>
       <c r="Q7" t="n">
-        <v>48.29300399320443</v>
+        <v>44.79752353816112</v>
       </c>
       <c r="R7" t="n">
-        <v>25.93173355231669</v>
+        <v>24.05477705132394</v>
       </c>
       <c r="S7" t="n">
-        <v>10.05077501411061</v>
+        <v>9.323293086815202</v>
       </c>
       <c r="T7" t="n">
-        <v>2.464196273673442</v>
+        <v>2.28583607240644</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03145782477029931</v>
+        <v>0.02918088603072055</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31524,7 +31524,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S8" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T8" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31603,7 +31603,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31633,7 +31633,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U9" t="n">
         <v>0.04525771959877963</v>
@@ -31676,13 +31676,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K10" t="n">
         <v>67.00516676073742</v>
@@ -31697,10 +31697,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q10" t="n">
         <v>48.29300399320443</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.38583356919825</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055158</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I11" t="n">
-        <v>91.9798486765156</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937401</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779021</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712531</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074824</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335967</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822519</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426701</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.6431848457577</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810517</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916534</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358599</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840366</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985301</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182841</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J12" t="n">
-        <v>120.6044214847383</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070428</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512822</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842454</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900653</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947077</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671574</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607457</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080804</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784626</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308316</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897151</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888314</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838207014</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784131</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490379</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790241</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889953</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676927</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441091</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714137</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P13" t="n">
-        <v>129.436164572092</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104781</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937817</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685361</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522795</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0583746983939081</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198248</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055156</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651554</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J14" t="n">
-        <v>202.49464189374</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779019</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712528</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074821</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359667</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822516</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426698</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457574</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411496</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810513</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916533</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840365</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985301</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182838</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847382</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070427</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L15" t="n">
-        <v>277.170135351282</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842452</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900651</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947075</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671572</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607456</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080798</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784624</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308313</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888313</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207009</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784128</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490373</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K16" t="n">
-        <v>124.338107579024</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889952</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676925</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N16" t="n">
-        <v>163.770216344109</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714136</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720919</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104776</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937814</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S16" t="n">
-        <v>18.6507161368536</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522791</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.676110003867901</v>
+        <v>2.708016420010987</v>
       </c>
       <c r="H17" t="n">
-        <v>27.40671157711215</v>
+        <v>27.73347316143752</v>
       </c>
       <c r="I17" t="n">
-        <v>103.1707309241174</v>
+        <v>104.4008030324737</v>
       </c>
       <c r="J17" t="n">
-        <v>227.1314914407835</v>
+        <v>229.8395086279077</v>
       </c>
       <c r="K17" t="n">
-        <v>340.4112279045118</v>
+        <v>344.4698436869728</v>
       </c>
       <c r="L17" t="n">
-        <v>422.3102294353841</v>
+        <v>427.3453012008841</v>
       </c>
       <c r="M17" t="n">
-        <v>469.9015007166699</v>
+        <v>475.5039882102545</v>
       </c>
       <c r="N17" t="n">
-        <v>477.5049982651596</v>
+        <v>483.1981398636107</v>
       </c>
       <c r="O17" t="n">
-        <v>450.8944294141982</v>
+        <v>456.2703015871264</v>
       </c>
       <c r="P17" t="n">
-        <v>384.8279636937093</v>
+        <v>389.4161462181052</v>
       </c>
       <c r="Q17" t="n">
-        <v>288.98977418019</v>
+        <v>292.4353081764616</v>
       </c>
       <c r="R17" t="n">
-        <v>168.1031950304672</v>
+        <v>170.1074364435153</v>
       </c>
       <c r="S17" t="n">
-        <v>60.98185671313986</v>
+        <v>61.70892417100042</v>
       </c>
       <c r="T17" t="n">
-        <v>11.71467154193174</v>
+        <v>11.8543418785981</v>
       </c>
       <c r="U17" t="n">
-        <v>0.214088800309432</v>
+        <v>0.2166413136008789</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.431845083673284</v>
+        <v>1.448916521329464</v>
       </c>
       <c r="H18" t="n">
-        <v>13.82860909758146</v>
+        <v>13.99348324547141</v>
       </c>
       <c r="I18" t="n">
-        <v>49.2981750299793</v>
+        <v>49.88594163349253</v>
       </c>
       <c r="J18" t="n">
-        <v>135.2779602956413</v>
+        <v>136.8908367805175</v>
       </c>
       <c r="K18" t="n">
-        <v>231.2115809017513</v>
+        <v>233.9682437095916</v>
       </c>
       <c r="L18" t="n">
-        <v>310.8925038037103</v>
+        <v>314.5991771421716</v>
       </c>
       <c r="M18" t="n">
-        <v>362.7968880868667</v>
+        <v>367.1224010403647</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3990421786933</v>
+        <v>376.8390385891049</v>
       </c>
       <c r="O18" t="n">
-        <v>340.6723695351958</v>
+        <v>344.7340988270151</v>
       </c>
       <c r="P18" t="n">
-        <v>273.4196107586292</v>
+        <v>276.6795066036939</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.7737689264354</v>
+        <v>184.9529229683015</v>
       </c>
       <c r="R18" t="n">
-        <v>88.89999563367991</v>
+        <v>89.95992226289432</v>
       </c>
       <c r="S18" t="n">
-        <v>26.59589442700155</v>
+        <v>26.91298889399244</v>
       </c>
       <c r="T18" t="n">
-        <v>5.771340490770823</v>
+        <v>5.840150364481479</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09420033445218978</v>
+        <v>0.09532345535062269</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.200410819357959</v>
+        <v>1.214722939222142</v>
       </c>
       <c r="H19" t="n">
-        <v>10.67274346665531</v>
+        <v>10.79999122326596</v>
       </c>
       <c r="I19" t="n">
-        <v>36.09962718578299</v>
+        <v>36.53003166315315</v>
       </c>
       <c r="J19" t="n">
-        <v>84.86904492860768</v>
+        <v>85.88091180300543</v>
       </c>
       <c r="K19" t="n">
-        <v>139.4659115581337</v>
+        <v>141.1287196659906</v>
       </c>
       <c r="L19" t="n">
-        <v>178.4683503616369</v>
+        <v>180.5961722548992</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1698523471753</v>
+        <v>190.4133421909763</v>
       </c>
       <c r="N19" t="n">
-        <v>183.6955938386594</v>
+        <v>185.8857385084212</v>
       </c>
       <c r="O19" t="n">
-        <v>169.6726129034323</v>
+        <v>171.6955659911443</v>
       </c>
       <c r="P19" t="n">
-        <v>145.1842321885298</v>
+        <v>146.9152180310125</v>
       </c>
       <c r="Q19" t="n">
-        <v>100.5180368827833</v>
+        <v>101.7164817561377</v>
       </c>
       <c r="R19" t="n">
-        <v>53.97483556858602</v>
+        <v>54.61836052175194</v>
       </c>
       <c r="S19" t="n">
-        <v>20.91988673372006</v>
+        <v>21.1693079498986</v>
       </c>
       <c r="T19" t="n">
-        <v>5.129028046347641</v>
+        <v>5.190179831221879</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06547695378316147</v>
+        <v>0.06625761486666237</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.676110003867901</v>
+        <v>2.708016420010986</v>
       </c>
       <c r="H20" t="n">
-        <v>27.40671157711215</v>
+        <v>27.73347316143752</v>
       </c>
       <c r="I20" t="n">
-        <v>103.1707309241174</v>
+        <v>104.4008030324736</v>
       </c>
       <c r="J20" t="n">
-        <v>227.1314914407835</v>
+        <v>229.8395086279076</v>
       </c>
       <c r="K20" t="n">
-        <v>340.4112279045118</v>
+        <v>344.4698436869728</v>
       </c>
       <c r="L20" t="n">
-        <v>422.3102294353841</v>
+        <v>427.345301200884</v>
       </c>
       <c r="M20" t="n">
-        <v>469.9015007166699</v>
+        <v>475.5039882102544</v>
       </c>
       <c r="N20" t="n">
-        <v>477.5049982651596</v>
+        <v>483.1981398636107</v>
       </c>
       <c r="O20" t="n">
-        <v>450.8944294141982</v>
+        <v>456.2703015871264</v>
       </c>
       <c r="P20" t="n">
-        <v>384.8279636937093</v>
+        <v>389.4161462181051</v>
       </c>
       <c r="Q20" t="n">
-        <v>288.98977418019</v>
+        <v>292.4353081764615</v>
       </c>
       <c r="R20" t="n">
-        <v>168.1031950304672</v>
+        <v>170.1074364435152</v>
       </c>
       <c r="S20" t="n">
-        <v>60.98185671313986</v>
+        <v>61.7089241710004</v>
       </c>
       <c r="T20" t="n">
-        <v>11.71467154193174</v>
+        <v>11.8543418785981</v>
       </c>
       <c r="U20" t="n">
-        <v>0.214088800309432</v>
+        <v>0.2166413136008788</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.431845083673284</v>
+        <v>1.448916521329464</v>
       </c>
       <c r="H21" t="n">
-        <v>13.82860909758146</v>
+        <v>13.9934832454714</v>
       </c>
       <c r="I21" t="n">
-        <v>49.2981750299793</v>
+        <v>49.88594163349252</v>
       </c>
       <c r="J21" t="n">
-        <v>135.2779602956413</v>
+        <v>136.8908367805175</v>
       </c>
       <c r="K21" t="n">
-        <v>231.2115809017513</v>
+        <v>233.9682437095916</v>
       </c>
       <c r="L21" t="n">
-        <v>310.8925038037103</v>
+        <v>314.5991771421716</v>
       </c>
       <c r="M21" t="n">
-        <v>362.7968880868667</v>
+        <v>367.1224010403646</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3990421786933</v>
+        <v>376.8390385891048</v>
       </c>
       <c r="O21" t="n">
-        <v>340.6723695351958</v>
+        <v>344.7340988270151</v>
       </c>
       <c r="P21" t="n">
-        <v>273.4196107586292</v>
+        <v>276.6795066036939</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.7737689264354</v>
+        <v>184.9529229683014</v>
       </c>
       <c r="R21" t="n">
-        <v>88.89999563367991</v>
+        <v>89.95992226289431</v>
       </c>
       <c r="S21" t="n">
-        <v>26.59589442700155</v>
+        <v>26.91298889399244</v>
       </c>
       <c r="T21" t="n">
-        <v>5.771340490770823</v>
+        <v>5.840150364481478</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09420033445218978</v>
+        <v>0.09532345535062267</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.200410819357959</v>
+        <v>1.214722939222142</v>
       </c>
       <c r="H22" t="n">
-        <v>10.67274346665531</v>
+        <v>10.79999122326596</v>
       </c>
       <c r="I22" t="n">
-        <v>36.09962718578299</v>
+        <v>36.53003166315315</v>
       </c>
       <c r="J22" t="n">
-        <v>84.86904492860768</v>
+        <v>85.88091180300542</v>
       </c>
       <c r="K22" t="n">
-        <v>139.4659115581337</v>
+        <v>141.1287196659906</v>
       </c>
       <c r="L22" t="n">
-        <v>178.4683503616369</v>
+        <v>180.5961722548992</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1698523471753</v>
+        <v>190.4133421909763</v>
       </c>
       <c r="N22" t="n">
-        <v>183.6955938386594</v>
+        <v>185.8857385084212</v>
       </c>
       <c r="O22" t="n">
-        <v>169.6726129034323</v>
+        <v>171.6955659911443</v>
       </c>
       <c r="P22" t="n">
-        <v>145.1842321885298</v>
+        <v>146.9152180310124</v>
       </c>
       <c r="Q22" t="n">
-        <v>100.5180368827833</v>
+        <v>101.7164817561377</v>
       </c>
       <c r="R22" t="n">
-        <v>53.97483556858602</v>
+        <v>54.61836052175193</v>
       </c>
       <c r="S22" t="n">
-        <v>20.91988673372006</v>
+        <v>21.16930794989859</v>
       </c>
       <c r="T22" t="n">
-        <v>5.129028046347641</v>
+        <v>5.190179831221878</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06547695378316147</v>
+        <v>0.06625761486666236</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.44873736705384</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K11" t="n">
-        <v>83.39712583292152</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L11" t="n">
-        <v>140.7360160012659</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M11" t="n">
-        <v>188.5852654802097</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O11" t="n">
-        <v>171.8879043605652</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P11" t="n">
-        <v>111.8528537874005</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.33749497130819</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K12" t="n">
-        <v>135.0753528219192</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L12" t="n">
-        <v>138.615755571408</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622271</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N12" t="n">
-        <v>200.663375406732</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O12" t="n">
-        <v>161.1235481502633</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P12" t="n">
-        <v>109.7875025528271</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.9666072747242</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>41.57616651612613</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493115</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295333</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233377</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854534</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369855</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353429</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>21.4487373670537</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K14" t="n">
-        <v>83.39712583292135</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L14" t="n">
-        <v>140.7360160012656</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M14" t="n">
-        <v>188.5852654802094</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N14" t="n">
-        <v>196.2971847393758</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O14" t="n">
-        <v>171.8879043605649</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P14" t="n">
-        <v>111.8528537874002</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q14" t="n">
-        <v>35.33749497130796</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>97.3216690912724</v>
       </c>
       <c r="K15" t="n">
-        <v>68.2907269326837</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L15" t="n">
-        <v>205.4003814606424</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M15" t="n">
-        <v>181.3104407622268</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067318</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O15" t="n">
-        <v>161.123548150263</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528269</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472408</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>41.57616651612445</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493114</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295331</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233376</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854533</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369854</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353372</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>46.08558691409718</v>
+        <v>48.79360410122138</v>
       </c>
       <c r="K17" t="n">
-        <v>120.3213768595313</v>
+        <v>124.3799926419923</v>
       </c>
       <c r="L17" t="n">
-        <v>186.5438144653969</v>
+        <v>191.5788862308969</v>
       </c>
       <c r="M17" t="n">
-        <v>239.5552674893972</v>
+        <v>245.1577549829817</v>
       </c>
       <c r="N17" t="n">
-        <v>248.0919346685687</v>
+        <v>253.7850762670198</v>
       </c>
       <c r="O17" t="n">
-        <v>220.7962179925114</v>
+        <v>226.1720901654397</v>
       </c>
       <c r="P17" t="n">
-        <v>153.5949679384398</v>
+        <v>158.1831504628356</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.68408430574053</v>
+        <v>70.12961830201212</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8.440333628974628</v>
+        <v>136.1442454542597</v>
       </c>
       <c r="K18" t="n">
-        <v>258.8612854451991</v>
+        <v>145.6913342595096</v>
       </c>
       <c r="L18" t="n">
-        <v>172.3381240238361</v>
+        <v>176.0447973622975</v>
       </c>
       <c r="M18" t="n">
-        <v>220.6628541648484</v>
+        <v>224.9883671183463</v>
       </c>
       <c r="N18" t="n">
-        <v>241.05733009536</v>
+        <v>245.4973265057716</v>
       </c>
       <c r="O18" t="n">
-        <v>198.0761250907514</v>
+        <v>202.1378543825707</v>
       </c>
       <c r="P18" t="n">
-        <v>139.4452033442989</v>
+        <v>142.7050991893637</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.79199484041385</v>
+        <v>44.97114888227995</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>117.1964197322509</v>
+        <v>118.8592278401078</v>
       </c>
       <c r="L19" t="n">
-        <v>206.0583756219531</v>
+        <v>208.1861975152154</v>
       </c>
       <c r="M19" t="n">
-        <v>227.7537293090159</v>
+        <v>229.9972191528169</v>
       </c>
       <c r="N19" t="n">
-        <v>227.827766217888</v>
+        <v>230.0179108876498</v>
       </c>
       <c r="O19" t="n">
-        <v>194.257740817472</v>
+        <v>196.280693905184</v>
       </c>
       <c r="P19" t="n">
-        <v>142.4627914534233</v>
+        <v>144.193777295906</v>
       </c>
       <c r="Q19" t="n">
-        <v>14.35599363108888</v>
+        <v>15.55443850444335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>46.08558691409718</v>
+        <v>48.79360410122135</v>
       </c>
       <c r="K20" t="n">
-        <v>120.3213768595313</v>
+        <v>124.3799926419922</v>
       </c>
       <c r="L20" t="n">
-        <v>186.5438144653969</v>
+        <v>191.5788862308968</v>
       </c>
       <c r="M20" t="n">
-        <v>239.5552674893972</v>
+        <v>245.1577549829817</v>
       </c>
       <c r="N20" t="n">
-        <v>248.0919346685687</v>
+        <v>253.7850762670197</v>
       </c>
       <c r="O20" t="n">
-        <v>220.7962179925114</v>
+        <v>226.1720901654396</v>
       </c>
       <c r="P20" t="n">
-        <v>153.5949679384398</v>
+        <v>158.1831504628356</v>
       </c>
       <c r="Q20" t="n">
-        <v>66.68408430574053</v>
+        <v>70.12961830201206</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>134.5313689693835</v>
+        <v>136.1442454542596</v>
       </c>
       <c r="K21" t="n">
-        <v>132.7702501047903</v>
+        <v>145.69133425951</v>
       </c>
       <c r="L21" t="n">
-        <v>172.3381240238361</v>
+        <v>176.0447973622974</v>
       </c>
       <c r="M21" t="n">
-        <v>220.6628541648484</v>
+        <v>224.9883671183463</v>
       </c>
       <c r="N21" t="n">
-        <v>241.05733009536</v>
+        <v>245.4973265057715</v>
       </c>
       <c r="O21" t="n">
-        <v>198.0761250907514</v>
+        <v>202.1378543825707</v>
       </c>
       <c r="P21" t="n">
-        <v>139.4452033442989</v>
+        <v>142.7050991893637</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.79199484041385</v>
+        <v>44.97114888227992</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>117.1964197322509</v>
+        <v>118.8592278401078</v>
       </c>
       <c r="L22" t="n">
-        <v>206.0583756219531</v>
+        <v>208.1861975152153</v>
       </c>
       <c r="M22" t="n">
-        <v>227.7537293090159</v>
+        <v>229.9972191528169</v>
       </c>
       <c r="N22" t="n">
-        <v>227.827766217888</v>
+        <v>230.0179108876497</v>
       </c>
       <c r="O22" t="n">
-        <v>194.257740817472</v>
+        <v>196.2806939051839</v>
       </c>
       <c r="P22" t="n">
-        <v>142.4627914534233</v>
+        <v>144.1937772959059</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.35599363108888</v>
+        <v>15.55443850444334</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K24" t="n">
         <v>451.0527332560634</v>
@@ -36445,7 +36445,7 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M24" t="n">
-        <v>481.2868411833762</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N24" t="n">
         <v>391.197099592874</v>
@@ -36454,13 +36454,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P24" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750467</v>
       </c>
       <c r="Q24" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K27" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L27" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M27" t="n">
-        <v>366.9313322820406</v>
+        <v>520.9482342985602</v>
       </c>
       <c r="N27" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O27" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P27" t="n">
-        <v>490.1260733652758</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q27" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R27" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>373.0365088578699</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36928,10 +36928,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P30" t="n">
-        <v>568.1422977634695</v>
+        <v>418.4229873015963</v>
       </c>
       <c r="Q30" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
         <v>24.58388860977094</v>
@@ -37150,7 +37150,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K33" t="n">
-        <v>451.0527332560634</v>
+        <v>373.0365088578708</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
@@ -37165,13 +37165,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P33" t="n">
-        <v>304.6326742391975</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q33" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L36" t="n">
-        <v>352.6335057535164</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M36" t="n">
         <v>366.9313322820406</v>
@@ -37402,7 +37402,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P36" t="n">
-        <v>249.6795291235323</v>
+        <v>443.006875911368</v>
       </c>
       <c r="Q36" t="n">
         <v>326.5580100667037</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K39" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L39" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M39" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N39" t="n">
         <v>391.197099592874</v>
@@ -37639,13 +37639,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P39" t="n">
-        <v>270.860522824007</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R39" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K42" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676403</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
@@ -37876,13 +37876,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P42" t="n">
-        <v>544.5140226420065</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q42" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R42" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K45" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M45" t="n">
-        <v>622.4553810291975</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N45" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O45" t="n">
         <v>335.4246819961231</v>
@@ -38116,7 +38116,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q45" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R45" t="n">
         <v>24.58388860977094</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_13_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286677.6019257315</v>
+        <v>360276.6767258286</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11729499.65004505</v>
+        <v>11794270.92730509</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12496835.22309061</v>
+        <v>12586375.36596659</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7294756.248750458</v>
+        <v>7246633.637302823</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>232.2791855053265</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>56.56995359489693</v>
       </c>
       <c r="X11" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.60648048446259</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>26.49805446537093</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1530,28 +1530,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>114.3541394883685</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.9620422620141</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>79.51149230610436</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>211.2228407230371</v>
       </c>
       <c r="V14" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1685,25 +1685,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.09723784409828568</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>93.67130677906988</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.124007707786</v>
       </c>
       <c r="T16" t="n">
-        <v>223.2143458795659</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="X16" t="n">
-        <v>20.64107630343904</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>332.9077478119528</v>
+        <v>323.6878872773841</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>332.9077478119528</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>187.1500577348356</v>
+        <v>285.1042911139199</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>106.0750865379323</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>323.6878872773841</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>332.9077478119528</v>
+        <v>323.6878872773841</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>59.27767444446454</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>135.9116720795373</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.406835138915</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.19791188974881</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>194.3245783303401</v>
+        <v>185.9902825976027</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>43.18666766187662</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7762564192366</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>56.80370227694458</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2527717416242</v>
+        <v>286.2535524027077</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9077478119528</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>332.9077478119528</v>
+        <v>249.3727874959988</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>147.3111454152449</v>
+        <v>148.0382128731055</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.3811780221996</v>
       </c>
       <c r="U20" t="n">
-        <v>151.0694881993407</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>323.6878872773841</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>323.6878872773841</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2165,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>32.39842558292788</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.9116720795373</v>
       </c>
       <c r="H21" t="n">
-        <v>98.24196099102505</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.51069121792256</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>11.25783851896323</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.3933882040508</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8460586256242</v>
+        <v>137.5952058751533</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>56.80370227694455</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2527717416242</v>
+        <v>286.2535524027077</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>209.8079516447482</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I23" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>11.17010569444841</v>
       </c>
       <c r="X23" t="n">
-        <v>365.4012472919481</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I24" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705217</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>12.45363786244327</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.2515091551288</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U25" t="n">
-        <v>95.89042502659743</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.547702772954</v>
+        <v>84.87016149153101</v>
       </c>
       <c r="H26" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I26" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>199.1234916049276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I27" t="n">
-        <v>20.22295923705128</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U28" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>228.9445298776394</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.0479027453597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>240.2092611640379</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>193.1994278308466</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I30" t="n">
-        <v>20.22295923705012</v>
+        <v>20.2229592370504</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>134.3646350838592</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T30" t="n">
         <v>192.0665623188214</v>
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>145.9219060821655</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>152.5801449806295</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>280.8123722162941</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>411.547702772954</v>
       </c>
       <c r="H32" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U32" t="n">
         <v>251.045250128462</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>367.4301479957941</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I33" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>134.3646350838602</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T33" t="n">
         <v>192.0665623188214</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>6.12871460753401</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6009348307107223</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2271541212006</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I35" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T35" t="n">
-        <v>187.7709202910285</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U35" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>206.8582527646976</v>
       </c>
     </row>
     <row r="36">
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>70.11351530063372</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>187.123594315218</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>19.08535881736855</v>
+        <v>252.5239959908902</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I39" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>134.3646350838588</v>
       </c>
       <c r="T39" t="n">
-        <v>192.0665623188218</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U39" t="n">
         <v>225.8092030868072</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>31.21099908910152</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>21.81989882877993</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>230.2994835575059</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>123.4522153987944</v>
+        <v>112.6316575095413</v>
       </c>
       <c r="T41" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I42" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705128</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H43" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S43" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>110.6905642034429</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>152.083236427902</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>195.9404637567434</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,7 +3985,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>162.1462409286434</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I45" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>61.41459162918858</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>79.41653965146601</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>522.1002068716687</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="C11" t="n">
-        <v>522.1002068716687</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="D11" t="n">
-        <v>522.1002068716687</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="E11" t="n">
-        <v>522.1002068716687</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="F11" t="n">
-        <v>287.4747669672985</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="G11" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H11" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I11" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J11" t="n">
-        <v>49.28269087917587</v>
+        <v>40.41888584470337</v>
       </c>
       <c r="K11" t="n">
-        <v>142.2640879052542</v>
+        <v>122.9820404192955</v>
       </c>
       <c r="L11" t="n">
-        <v>294.5174947515903</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M11" t="n">
-        <v>495.5981834030603</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N11" t="n">
-        <v>704.5463761991316</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O11" t="n">
-        <v>888.5149683358413</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P11" t="n">
-        <v>1011.026904601763</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q11" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R11" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S11" t="n">
-        <v>1054.855520006025</v>
+        <v>803.0167550628464</v>
       </c>
       <c r="T11" t="n">
-        <v>1054.855520006025</v>
+        <v>803.0167550628464</v>
       </c>
       <c r="U11" t="n">
-        <v>1054.855520006025</v>
+        <v>560.786504414862</v>
       </c>
       <c r="V11" t="n">
-        <v>1054.855520006025</v>
+        <v>560.786504414862</v>
       </c>
       <c r="W11" t="n">
-        <v>1054.855520006025</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="X11" t="n">
-        <v>788.4778634388467</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="Y11" t="n">
-        <v>522.1002068716687</v>
+        <v>261.4148864993048</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>609.1154303071141</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="C12" t="n">
-        <v>609.1154303071141</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D12" t="n">
-        <v>609.1154303071141</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E12" t="n">
-        <v>449.8779753016586</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F12" t="n">
-        <v>303.3434173285435</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G12" t="n">
-        <v>165.9467308776107</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H12" t="n">
-        <v>65.46256898749988</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I12" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J12" t="n">
-        <v>117.4455628004802</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K12" t="n">
-        <v>192.1295835699344</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L12" t="n">
-        <v>338.8740072302311</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M12" t="n">
-        <v>529.474696326755</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N12" t="n">
-        <v>739.52866342936</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O12" t="n">
-        <v>909.4672107560898</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P12" t="n">
-        <v>1026.524810789493</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q12" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R12" t="n">
-        <v>1036.519636212815</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S12" t="n">
-        <v>1036.519636212815</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T12" t="n">
-        <v>839.7105578442525</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U12" t="n">
-        <v>839.7105578442525</v>
+        <v>731.0930050771842</v>
       </c>
       <c r="V12" t="n">
-        <v>839.7105578442525</v>
+        <v>495.9408968454415</v>
       </c>
       <c r="W12" t="n">
-        <v>839.7105578442525</v>
+        <v>253.710646197457</v>
       </c>
       <c r="X12" t="n">
-        <v>839.7105578442525</v>
+        <v>226.9449346162743</v>
       </c>
       <c r="Y12" t="n">
-        <v>631.9502590792986</v>
+        <v>19.18463585132037</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.0629918407077</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="C13" t="n">
-        <v>757.1268089128008</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="D13" t="n">
-        <v>607.0101695004651</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="E13" t="n">
-        <v>459.0970759180719</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="F13" t="n">
-        <v>459.0970759180719</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="G13" t="n">
-        <v>290.5277152730754</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6063422065534</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="I13" t="n">
-        <v>21.0971104001205</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="J13" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K13" t="n">
-        <v>126.4133765287949</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L13" t="n">
-        <v>316.7083726551011</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M13" t="n">
-        <v>527.7368878375338</v>
+        <v>450.4476363223401</v>
       </c>
       <c r="N13" t="n">
-        <v>739.1822330227047</v>
+        <v>656.2710011584443</v>
       </c>
       <c r="O13" t="n">
-        <v>918.4699372075544</v>
+        <v>830.365896547043</v>
       </c>
       <c r="P13" t="n">
-        <v>1048.360858816803</v>
+        <v>955.8134731456586</v>
       </c>
       <c r="Q13" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R13" t="n">
-        <v>926.0629918407077</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S13" t="n">
-        <v>926.0629918407077</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T13" t="n">
-        <v>926.0629918407077</v>
+        <v>733.6025958783833</v>
       </c>
       <c r="U13" t="n">
-        <v>926.0629918407077</v>
+        <v>491.3723452303989</v>
       </c>
       <c r="V13" t="n">
-        <v>926.0629918407077</v>
+        <v>249.1420945824144</v>
       </c>
       <c r="W13" t="n">
-        <v>926.0629918407077</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="X13" t="n">
-        <v>926.0629918407077</v>
+        <v>37.05922361068303</v>
       </c>
       <c r="Y13" t="n">
-        <v>926.0629918407077</v>
+        <v>37.05922361068303</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>101.4117490931552</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="C14" t="n">
-        <v>101.4117490931552</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="D14" t="n">
-        <v>101.4117490931552</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="E14" t="n">
-        <v>101.4117490931552</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="F14" t="n">
-        <v>101.4117490931552</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="G14" t="n">
-        <v>101.4117490931552</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H14" t="n">
-        <v>101.4117490931552</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I14" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J14" t="n">
-        <v>49.28269087917573</v>
+        <v>40.41888584470354</v>
       </c>
       <c r="K14" t="n">
-        <v>142.2640879052541</v>
+        <v>122.9820404192956</v>
       </c>
       <c r="L14" t="n">
-        <v>294.5174947515907</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M14" t="n">
-        <v>495.5981834030604</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N14" t="n">
-        <v>704.5463761991317</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O14" t="n">
-        <v>888.5149683358414</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P14" t="n">
-        <v>1011.026904601763</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q14" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R14" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S14" t="n">
-        <v>900.5447187946892</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T14" t="n">
-        <v>900.5447187946892</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U14" t="n">
-        <v>900.5447187946892</v>
+        <v>745.8753877952738</v>
       </c>
       <c r="V14" t="n">
-        <v>634.1670622275112</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="W14" t="n">
-        <v>634.1670622275112</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="X14" t="n">
-        <v>634.1670622275112</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.7894056603332</v>
+        <v>261.4148864993048</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>592.6684430277467</v>
+        <v>594.027159706038</v>
       </c>
       <c r="C15" t="n">
-        <v>418.2154137466196</v>
+        <v>419.574130424911</v>
       </c>
       <c r="D15" t="n">
-        <v>418.2154137466196</v>
+        <v>324.9566488298909</v>
       </c>
       <c r="E15" t="n">
-        <v>258.9779587411641</v>
+        <v>165.7191938244354</v>
       </c>
       <c r="F15" t="n">
-        <v>258.9779587411641</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G15" t="n">
-        <v>121.5812722902314</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H15" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I15" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J15" t="n">
-        <v>117.4455628004802</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K15" t="n">
-        <v>192.1295835699344</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L15" t="n">
-        <v>338.8740072302311</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M15" t="n">
-        <v>529.474696326755</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N15" t="n">
-        <v>739.52866342936</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O15" t="n">
-        <v>909.4672107560898</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P15" t="n">
-        <v>1026.524810789493</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q15" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R15" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S15" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T15" t="n">
-        <v>1054.855520006025</v>
+        <v>762.242496726106</v>
       </c>
       <c r="U15" t="n">
-        <v>1054.855520006025</v>
+        <v>762.242496726106</v>
       </c>
       <c r="V15" t="n">
-        <v>1054.855520006025</v>
+        <v>762.242496726106</v>
       </c>
       <c r="W15" t="n">
-        <v>800.6181632778232</v>
+        <v>762.242496726106</v>
       </c>
       <c r="X15" t="n">
-        <v>592.7666630722904</v>
+        <v>762.242496726106</v>
       </c>
       <c r="Y15" t="n">
-        <v>592.7666630722904</v>
+        <v>762.242496726106</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.0971104001205</v>
+        <v>334.6814283538473</v>
       </c>
       <c r="C16" t="n">
-        <v>21.0971104001205</v>
+        <v>334.6814283538473</v>
       </c>
       <c r="D16" t="n">
-        <v>21.0971104001205</v>
+        <v>334.6814283538473</v>
       </c>
       <c r="E16" t="n">
-        <v>21.0971104001205</v>
+        <v>334.6814283538473</v>
       </c>
       <c r="F16" t="n">
-        <v>21.0971104001205</v>
+        <v>187.791480855937</v>
       </c>
       <c r="G16" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H16" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I16" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J16" t="n">
-        <v>21.0971104001205</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K16" t="n">
-        <v>126.4133765287949</v>
+        <v>120.2325654469301</v>
       </c>
       <c r="L16" t="n">
-        <v>316.7083726551011</v>
+        <v>305.0655603477483</v>
       </c>
       <c r="M16" t="n">
-        <v>527.7368878375338</v>
+        <v>510.3351610669861</v>
       </c>
       <c r="N16" t="n">
-        <v>739.1822330227047</v>
+        <v>716.1585259030903</v>
       </c>
       <c r="O16" t="n">
-        <v>918.4699372075544</v>
+        <v>890.2534212916892</v>
       </c>
       <c r="P16" t="n">
-        <v>1048.360858816803</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="Q16" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R16" t="n">
-        <v>1054.855520006025</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S16" t="n">
-        <v>1054.855520006025</v>
+        <v>802.5408756894668</v>
       </c>
       <c r="T16" t="n">
-        <v>829.3864837640391</v>
+        <v>576.9116790018318</v>
       </c>
       <c r="U16" t="n">
-        <v>563.0088271968611</v>
+        <v>576.9116790018318</v>
       </c>
       <c r="V16" t="n">
-        <v>308.3243389909743</v>
+        <v>576.9116790018318</v>
       </c>
       <c r="W16" t="n">
-        <v>41.94668242379629</v>
+        <v>334.6814283538473</v>
       </c>
       <c r="X16" t="n">
-        <v>21.0971104001205</v>
+        <v>334.6814283538473</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.0971104001205</v>
+        <v>334.6814283538473</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>659.0900865771994</v>
+        <v>313.8791634204937</v>
       </c>
       <c r="C17" t="n">
-        <v>659.0900865771994</v>
+        <v>313.8791634204937</v>
       </c>
       <c r="D17" t="n">
-        <v>659.0900865771994</v>
+        <v>313.8791634204937</v>
       </c>
       <c r="E17" t="n">
-        <v>322.8196342418935</v>
+        <v>313.8791634204937</v>
       </c>
       <c r="F17" t="n">
-        <v>322.8196342418935</v>
+        <v>313.8791634204937</v>
       </c>
       <c r="G17" t="n">
-        <v>133.7791718834737</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="H17" t="n">
-        <v>133.7791718834737</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="I17" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="J17" t="n">
-        <v>74.93828788516544</v>
+        <v>71.51976202714673</v>
       </c>
       <c r="K17" t="n">
-        <v>198.0744806007377</v>
+        <v>190.6379251180827</v>
       </c>
       <c r="L17" t="n">
-        <v>387.7375779693252</v>
+        <v>375.3163014388256</v>
       </c>
       <c r="M17" t="n">
-        <v>630.4437554024771</v>
+        <v>612.4760162533288</v>
       </c>
       <c r="N17" t="n">
-        <v>881.6909809068267</v>
+        <v>858.0870315752115</v>
       </c>
       <c r="O17" t="n">
-        <v>1105.601350170612</v>
+        <v>1076.675287387798</v>
       </c>
       <c r="P17" t="n">
-        <v>1262.202669128819</v>
+        <v>1228.734305646853</v>
       </c>
       <c r="Q17" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="R17" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="S17" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="T17" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="U17" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="V17" t="n">
-        <v>1331.630991247811</v>
+        <v>967.7940872131888</v>
       </c>
       <c r="W17" t="n">
-        <v>1331.630991247811</v>
+        <v>967.7940872131888</v>
       </c>
       <c r="X17" t="n">
-        <v>995.3605389125053</v>
+        <v>640.8366253168413</v>
       </c>
       <c r="Y17" t="n">
-        <v>995.3605389125053</v>
+        <v>640.8366253168413</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>541.2154812975705</v>
+        <v>437.0334210900373</v>
       </c>
       <c r="C18" t="n">
-        <v>481.339042464778</v>
+        <v>262.5803918089103</v>
       </c>
       <c r="D18" t="n">
-        <v>332.4046328035267</v>
+        <v>262.5803918089103</v>
       </c>
       <c r="E18" t="n">
-        <v>173.1671777980712</v>
+        <v>262.5803918089103</v>
       </c>
       <c r="F18" t="n">
-        <v>26.63261982495622</v>
+        <v>262.5803918089103</v>
       </c>
       <c r="G18" t="n">
-        <v>26.63261982495622</v>
+        <v>125.2958745568524</v>
       </c>
       <c r="H18" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="I18" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="J18" t="n">
-        <v>161.4154228246733</v>
+        <v>34.25096127487561</v>
       </c>
       <c r="K18" t="n">
-        <v>305.6498437415878</v>
+        <v>126.687401782994</v>
       </c>
       <c r="L18" t="n">
-        <v>479.9341931302623</v>
+        <v>297.3021445665918</v>
       </c>
       <c r="M18" t="n">
-        <v>702.6726765774251</v>
+        <v>597.7903506622165</v>
       </c>
       <c r="N18" t="n">
-        <v>945.715029818139</v>
+        <v>918.2413590668268</v>
       </c>
       <c r="O18" t="n">
-        <v>1145.831505656884</v>
+        <v>1114.336722906671</v>
       </c>
       <c r="P18" t="n">
-        <v>1287.109553854354</v>
+        <v>1252.387474217527</v>
       </c>
       <c r="Q18" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="R18" t="n">
-        <v>1321.330070147055</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="S18" t="n">
-        <v>1321.330070147055</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="T18" t="n">
-        <v>1125.042617288125</v>
+        <v>1106.882576788726</v>
       </c>
       <c r="U18" t="n">
-        <v>1125.042617288125</v>
+        <v>1106.882576788726</v>
       </c>
       <c r="V18" t="n">
-        <v>1125.042617288125</v>
+        <v>1106.882576788726</v>
       </c>
       <c r="W18" t="n">
-        <v>1125.042617288125</v>
+        <v>852.645220060524</v>
       </c>
       <c r="X18" t="n">
-        <v>917.1911170825924</v>
+        <v>644.7937198549912</v>
       </c>
       <c r="Y18" t="n">
-        <v>709.4308183176386</v>
+        <v>437.0334210900373</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>238.7163815230504</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="C19" t="n">
-        <v>238.7163815230504</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="D19" t="n">
-        <v>238.7163815230504</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="E19" t="n">
-        <v>195.0934848948922</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="F19" t="n">
-        <v>195.0934848948922</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="G19" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="H19" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="I19" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="J19" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="K19" t="n">
-        <v>144.303255386663</v>
+        <v>141.9194865171191</v>
       </c>
       <c r="L19" t="n">
-        <v>350.4075909267261</v>
+        <v>345.9172783828527</v>
       </c>
       <c r="M19" t="n">
-        <v>578.1048378880148</v>
+        <v>571.3934703987784</v>
       </c>
       <c r="N19" t="n">
-        <v>805.822569666788</v>
+        <v>796.9429589544875</v>
       </c>
       <c r="O19" t="n">
-        <v>1000.14045663292</v>
+        <v>989.2581223637848</v>
       </c>
       <c r="P19" t="n">
-        <v>1142.892296155867</v>
+        <v>1130.296285902674</v>
       </c>
       <c r="Q19" t="n">
-        <v>1158.291190275266</v>
+        <v>1144.508719597452</v>
       </c>
       <c r="R19" t="n">
-        <v>1158.291190275266</v>
+        <v>1144.508719597452</v>
       </c>
       <c r="S19" t="n">
-        <v>1158.291190275266</v>
+        <v>1144.508719597452</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.291190275266</v>
+        <v>1087.131242550033</v>
       </c>
       <c r="U19" t="n">
-        <v>869.1469763948376</v>
+        <v>797.9862401230555</v>
       </c>
       <c r="V19" t="n">
-        <v>869.1469763948376</v>
+        <v>543.3017519171686</v>
       </c>
       <c r="W19" t="n">
-        <v>869.1469763948376</v>
+        <v>253.8845818802081</v>
       </c>
       <c r="X19" t="n">
-        <v>641.1574254968202</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="Y19" t="n">
-        <v>420.3648463532901</v>
+        <v>25.89503098219073</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>699.173524495568</v>
+        <v>277.7867355236036</v>
       </c>
       <c r="C20" t="n">
-        <v>699.173524495568</v>
+        <v>277.7867355236036</v>
       </c>
       <c r="D20" t="n">
-        <v>699.173524495568</v>
+        <v>277.7867355236036</v>
       </c>
       <c r="E20" t="n">
-        <v>699.173524495568</v>
+        <v>277.7867355236036</v>
       </c>
       <c r="F20" t="n">
-        <v>362.9030721602621</v>
+        <v>277.7867355236036</v>
       </c>
       <c r="G20" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="H20" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="I20" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="J20" t="n">
-        <v>74.93828788516538</v>
+        <v>71.51976202714692</v>
       </c>
       <c r="K20" t="n">
-        <v>198.0744806007376</v>
+        <v>190.6379251180828</v>
       </c>
       <c r="L20" t="n">
-        <v>387.7375779693255</v>
+        <v>375.3163014388256</v>
       </c>
       <c r="M20" t="n">
-        <v>630.4437554024772</v>
+        <v>612.4760162533288</v>
       </c>
       <c r="N20" t="n">
-        <v>881.6909809068268</v>
+        <v>858.0870315752117</v>
       </c>
       <c r="O20" t="n">
-        <v>1105.601350170612</v>
+        <v>1076.675287387798</v>
       </c>
       <c r="P20" t="n">
-        <v>1262.202669128819</v>
+        <v>1228.734305646853</v>
       </c>
       <c r="Q20" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="R20" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="S20" t="n">
-        <v>1182.831854464735</v>
+        <v>1145.218000752864</v>
       </c>
       <c r="T20" t="n">
-        <v>1182.831854464735</v>
+        <v>931.7016593162988</v>
       </c>
       <c r="U20" t="n">
-        <v>1030.236411839139</v>
+        <v>931.7016593162988</v>
       </c>
       <c r="V20" t="n">
-        <v>699.173524495568</v>
+        <v>931.7016593162988</v>
       </c>
       <c r="W20" t="n">
-        <v>699.173524495568</v>
+        <v>604.7441974199512</v>
       </c>
       <c r="X20" t="n">
-        <v>699.173524495568</v>
+        <v>277.7867355236036</v>
       </c>
       <c r="Y20" t="n">
-        <v>699.173524495568</v>
+        <v>277.7867355236036</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>198.5023953723052</v>
+        <v>458.6485158686149</v>
       </c>
       <c r="C21" t="n">
-        <v>198.5023953723052</v>
+        <v>458.6485158686149</v>
       </c>
       <c r="D21" t="n">
-        <v>198.5023953723052</v>
+        <v>309.7141062073637</v>
       </c>
       <c r="E21" t="n">
-        <v>165.7767129653074</v>
+        <v>309.7141062073637</v>
       </c>
       <c r="F21" t="n">
-        <v>165.7767129653074</v>
+        <v>163.1795482342486</v>
       </c>
       <c r="G21" t="n">
-        <v>165.7767129653074</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="H21" t="n">
-        <v>66.54240893396891</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="I21" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="J21" t="n">
-        <v>161.4154228246733</v>
+        <v>159.0810862618804</v>
       </c>
       <c r="K21" t="n">
-        <v>305.6498437415881</v>
+        <v>251.5175267699988</v>
       </c>
       <c r="L21" t="n">
-        <v>479.9341931302625</v>
+        <v>422.1322695535965</v>
       </c>
       <c r="M21" t="n">
-        <v>702.6726765774254</v>
+        <v>640.5884951767964</v>
       </c>
       <c r="N21" t="n">
-        <v>945.7150298181391</v>
+        <v>879.2352519712028</v>
       </c>
       <c r="O21" t="n">
-        <v>1145.831505656884</v>
+        <v>1075.330615811047</v>
       </c>
       <c r="P21" t="n">
-        <v>1287.109553854354</v>
+        <v>1213.381367121903</v>
       </c>
       <c r="Q21" t="n">
-        <v>1331.630991247811</v>
+        <v>1294.751549109536</v>
       </c>
       <c r="R21" t="n">
-        <v>1331.630991247811</v>
+        <v>1283.379995049978</v>
       </c>
       <c r="S21" t="n">
-        <v>1331.630991247811</v>
+        <v>1283.379995049978</v>
       </c>
       <c r="T21" t="n">
-        <v>1331.630991247811</v>
+        <v>1087.023037268108</v>
       </c>
       <c r="U21" t="n">
-        <v>1103.503659302736</v>
+        <v>948.0379808285593</v>
       </c>
       <c r="V21" t="n">
-        <v>868.3515510709935</v>
+        <v>712.8858725968166</v>
       </c>
       <c r="W21" t="n">
-        <v>614.114194342792</v>
+        <v>458.6485158686149</v>
       </c>
       <c r="X21" t="n">
-        <v>406.2626941372591</v>
+        <v>458.6485158686149</v>
       </c>
       <c r="Y21" t="n">
-        <v>198.5023953723052</v>
+        <v>458.6485158686149</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>174.5457134073494</v>
+        <v>83.27250802960947</v>
       </c>
       <c r="C22" t="n">
-        <v>174.5457134073494</v>
+        <v>83.27250802960947</v>
       </c>
       <c r="D22" t="n">
-        <v>174.5457134073494</v>
+        <v>83.27250802960947</v>
       </c>
       <c r="E22" t="n">
-        <v>26.63261982495622</v>
+        <v>83.27250802960947</v>
       </c>
       <c r="F22" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="G22" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="H22" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="I22" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="J22" t="n">
-        <v>26.63261982495622</v>
+        <v>25.89503098219073</v>
       </c>
       <c r="K22" t="n">
-        <v>144.303255386663</v>
+        <v>141.9194865171191</v>
       </c>
       <c r="L22" t="n">
-        <v>350.4075909267261</v>
+        <v>345.9172783828527</v>
       </c>
       <c r="M22" t="n">
-        <v>578.1048378880148</v>
+        <v>571.3934703987784</v>
       </c>
       <c r="N22" t="n">
-        <v>805.822569666788</v>
+        <v>796.9429589544875</v>
       </c>
       <c r="O22" t="n">
-        <v>1000.14045663292</v>
+        <v>989.2581223637848</v>
       </c>
       <c r="P22" t="n">
-        <v>1142.892296155867</v>
+        <v>1130.296285902674</v>
       </c>
       <c r="Q22" t="n">
-        <v>1158.291190275266</v>
+        <v>1144.508719597452</v>
       </c>
       <c r="R22" t="n">
-        <v>1158.291190275266</v>
+        <v>1144.508719597452</v>
       </c>
       <c r="S22" t="n">
-        <v>1158.291190275266</v>
+        <v>1144.508719597452</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.291190275266</v>
+        <v>1144.508719597452</v>
       </c>
       <c r="U22" t="n">
-        <v>869.1469763948376</v>
+        <v>855.3637171704743</v>
       </c>
       <c r="V22" t="n">
-        <v>614.4624881889507</v>
+        <v>600.6792289645874</v>
       </c>
       <c r="W22" t="n">
-        <v>402.5352643053667</v>
+        <v>311.2620589276268</v>
       </c>
       <c r="X22" t="n">
-        <v>174.5457134073494</v>
+        <v>83.27250802960947</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.5457134073494</v>
+        <v>83.27250802960947</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1255.834556068884</v>
+        <v>1206.346846950667</v>
       </c>
       <c r="C23" t="n">
-        <v>886.8720391284728</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="D23" t="n">
-        <v>528.6063405217222</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E23" t="n">
-        <v>528.6063405217222</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F23" t="n">
-        <v>117.6204357321147</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G23" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H23" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I23" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J23" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K23" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L23" t="n">
-        <v>795.755353087291</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M23" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N23" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O23" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P23" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q23" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T23" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U23" t="n">
-        <v>2308.758267664335</v>
+        <v>2308.758267664337</v>
       </c>
       <c r="V23" t="n">
-        <v>1977.695380320764</v>
+        <v>1977.695380320766</v>
       </c>
       <c r="W23" t="n">
-        <v>1624.92672505065</v>
+        <v>1966.412445275869</v>
       </c>
       <c r="X23" t="n">
-        <v>1255.834556068884</v>
+        <v>1592.946687014789</v>
       </c>
       <c r="Y23" t="n">
-        <v>1255.834556068884</v>
+        <v>1592.946687014789</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966407</v>
       </c>
       <c r="C24" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155137</v>
       </c>
       <c r="D24" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542625</v>
       </c>
       <c r="E24" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148807</v>
       </c>
       <c r="F24" t="n">
-        <v>302.1446891756896</v>
+        <v>302.144689175692</v>
       </c>
       <c r="G24" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182541</v>
       </c>
       <c r="H24" t="n">
-        <v>71.67401812057878</v>
+        <v>71.6740181205811</v>
       </c>
       <c r="I24" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J24" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K24" t="n">
-        <v>560.1394111735142</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L24" t="n">
-        <v>854.8429682049859</v>
+        <v>932.4978103101005</v>
       </c>
       <c r="M24" t="n">
-        <v>1218.104987164206</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N24" t="n">
-        <v>1605.390115761151</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O24" t="n">
-        <v>1937.460550937313</v>
+        <v>2175.502629736641</v>
       </c>
       <c r="P24" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568938</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676484</v>
       </c>
       <c r="R24" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S24" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780098</v>
       </c>
       <c r="T24" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175228</v>
       </c>
       <c r="U24" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.52074204714</v>
       </c>
       <c r="V24" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815397</v>
       </c>
       <c r="W24" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X24" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881663</v>
       </c>
       <c r="Y24" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116709</v>
       </c>
     </row>
     <row r="25">
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>536.9083323241252</v>
+        <v>359.4550643866934</v>
       </c>
       <c r="C25" t="n">
-        <v>367.9721493962183</v>
+        <v>359.4550643866934</v>
       </c>
       <c r="D25" t="n">
-        <v>367.9721493962183</v>
+        <v>359.4550643866934</v>
       </c>
       <c r="E25" t="n">
-        <v>367.9721493962183</v>
+        <v>346.8756322024072</v>
       </c>
       <c r="F25" t="n">
-        <v>367.9721493962183</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G25" t="n">
         <v>199.9856847044969</v>
       </c>
       <c r="H25" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I25" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J25" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L25" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M25" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N25" t="n">
         <v>1123.088724245823</v>
@@ -6168,31 +6168,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q25" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R25" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S25" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T25" t="n">
-        <v>1337.233965749941</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U25" t="n">
-        <v>1240.37495057156</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V25" t="n">
-        <v>985.6904623656727</v>
+        <v>869.6648135671841</v>
       </c>
       <c r="W25" t="n">
-        <v>985.6904623656727</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="X25" t="n">
-        <v>757.7009114676554</v>
+        <v>580.2476435302235</v>
       </c>
       <c r="Y25" t="n">
-        <v>536.9083323241252</v>
+        <v>359.4550643866934</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1248.370234799863</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="C26" t="n">
-        <v>1248.370234799863</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="D26" t="n">
-        <v>1248.370234799863</v>
+        <v>893.19526818282</v>
       </c>
       <c r="E26" t="n">
-        <v>1248.370234799863</v>
+        <v>507.4070155845757</v>
       </c>
       <c r="F26" t="n">
-        <v>837.3843300102556</v>
+        <v>507.4070155845757</v>
       </c>
       <c r="G26" t="n">
         <v>421.6795797345444</v>
@@ -6223,55 +6223,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I26" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J26" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K26" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L26" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M26" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N26" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O26" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P26" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q26" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T26" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U26" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V26" t="n">
-        <v>2562.339328400156</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W26" t="n">
-        <v>2209.570673130042</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X26" t="n">
-        <v>1836.104914868962</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y26" t="n">
-        <v>1634.970074863985</v>
+        <v>1251.46096678957</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C27" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D27" t="n">
-        <v>607.9167021542615</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E27" t="n">
-        <v>448.679247148806</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F27" t="n">
-        <v>302.144689175691</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G27" t="n">
-        <v>165.4432786182532</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H27" t="n">
-        <v>71.67401812058019</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I27" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J27" t="n">
-        <v>238.4273302370162</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K27" t="n">
-        <v>423.1489515180662</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L27" t="n">
-        <v>717.8525085495379</v>
+        <v>801.9449557744473</v>
       </c>
       <c r="M27" t="n">
-        <v>1233.591260505113</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N27" t="n">
-        <v>1867.770244284151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O27" t="n">
-        <v>2199.840679460313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P27" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R27" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S27" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T27" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U27" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V27" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W27" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X27" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y27" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="28">
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>665.1026499885493</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C28" t="n">
-        <v>496.1664670606424</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D28" t="n">
         <v>346.0498276483066</v>
@@ -6372,16 +6372,16 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F28" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G28" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H28" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I28" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J28" t="n">
         <v>76.71595955312202</v>
@@ -6393,7 +6393,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M28" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N28" t="n">
         <v>1123.088724245823</v>
@@ -6405,31 +6405,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S28" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T28" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U28" t="n">
-        <v>1347.327782578335</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V28" t="n">
-        <v>1347.327782578335</v>
+        <v>893.0922008865665</v>
       </c>
       <c r="W28" t="n">
-        <v>1057.910612541375</v>
+        <v>893.0922008865665</v>
       </c>
       <c r="X28" t="n">
-        <v>1057.910612541375</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="Y28" t="n">
-        <v>846.751114818789</v>
+        <v>665.1026499885492</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1134.226501951988</v>
+        <v>1216.983460896267</v>
       </c>
       <c r="C29" t="n">
-        <v>1134.226501951988</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="D29" t="n">
-        <v>775.9608033452378</v>
+        <v>848.0209439558549</v>
       </c>
       <c r="E29" t="n">
-        <v>775.9608033452378</v>
+        <v>462.2326913576107</v>
       </c>
       <c r="F29" t="n">
-        <v>533.3251860078258</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H29" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I29" t="n">
         <v>51.24678656800311</v>
@@ -6490,25 +6490,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S29" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T29" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U29" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V29" t="n">
-        <v>1897.83159218888</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W29" t="n">
-        <v>1897.83159218888</v>
+        <v>2367.18839119728</v>
       </c>
       <c r="X29" t="n">
-        <v>1524.3658339278</v>
+        <v>1993.7226329362</v>
       </c>
       <c r="Y29" t="n">
-        <v>1134.226501951988</v>
+        <v>1603.583300960388</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C30" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D30" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542606</v>
       </c>
       <c r="E30" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488051</v>
       </c>
       <c r="F30" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756901</v>
       </c>
       <c r="G30" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182523</v>
       </c>
       <c r="H30" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057928</v>
       </c>
       <c r="I30" t="n">
         <v>51.24678656800311</v>
@@ -6545,25 +6545,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K30" t="n">
-        <v>423.1489515180662</v>
+        <v>614.5430248380228</v>
       </c>
       <c r="L30" t="n">
-        <v>717.8525085495379</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M30" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.399656105703</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O30" t="n">
-        <v>1800.470091281865</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P30" t="n">
-        <v>2214.708848710446</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q30" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R30" t="n">
         <v>2562.339328400155</v>
@@ -6575,16 +6575,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U30" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V30" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W30" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X30" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y30" t="n">
         <v>1099.519478116707</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>198.1367340659135</v>
+        <v>643.5623317901023</v>
       </c>
       <c r="C31" t="n">
-        <v>198.1367340659135</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D31" t="n">
-        <v>198.1367340659135</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E31" t="n">
         <v>198.1367340659135</v>
@@ -6651,22 +6651,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T31" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U31" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V31" t="n">
-        <v>869.6648135671838</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W31" t="n">
-        <v>580.2476435302233</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X31" t="n">
-        <v>352.2580926322059</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y31" t="n">
-        <v>198.1367340659135</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1532.019095624403</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="C32" t="n">
-        <v>1532.019095624403</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="D32" t="n">
-        <v>1532.019095624403</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="E32" t="n">
-        <v>1248.370234799863</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F32" t="n">
-        <v>837.3843300102556</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G32" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H32" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I32" t="n">
         <v>51.24678656800313</v>
@@ -6703,22 +6703,22 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K32" t="n">
-        <v>442.5171852816083</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L32" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M32" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N32" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O32" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P32" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q32" t="n">
         <v>2542.250581723851</v>
@@ -6727,25 +6727,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S32" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T32" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U32" t="n">
-        <v>2308.758267664336</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V32" t="n">
-        <v>2308.758267664336</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W32" t="n">
-        <v>2308.758267664336</v>
+        <v>1622.544763526517</v>
       </c>
       <c r="X32" t="n">
-        <v>2308.758267664336</v>
+        <v>1249.079005265437</v>
       </c>
       <c r="Y32" t="n">
-        <v>1918.618935688524</v>
+        <v>877.9374416333219</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C33" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D33" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E33" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F33" t="n">
-        <v>302.1446891756899</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G33" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H33" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I33" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J33" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145209</v>
       </c>
       <c r="K33" t="n">
-        <v>482.9033490193035</v>
+        <v>614.5430248380237</v>
       </c>
       <c r="L33" t="n">
-        <v>777.6069060507753</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.868925009995</v>
+        <v>1272.508600828716</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.154053606941</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O33" t="n">
-        <v>1860.224488783103</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.685363568937</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q33" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R33" t="n">
         <v>2562.339328400156</v>
       </c>
       <c r="S33" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T33" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U33" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V33" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W33" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X33" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y33" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>201.9704308598446</v>
+        <v>354.4439942939401</v>
       </c>
       <c r="C34" t="n">
-        <v>201.9704308598446</v>
+        <v>354.4439942939401</v>
       </c>
       <c r="D34" t="n">
-        <v>51.85379144750891</v>
+        <v>204.3273548816044</v>
       </c>
       <c r="E34" t="n">
-        <v>51.85379144750891</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F34" t="n">
         <v>51.24678656800313</v>
@@ -6885,25 +6885,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S34" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T34" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U34" t="n">
-        <v>927.7205539329318</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V34" t="n">
-        <v>673.036065727045</v>
+        <v>1092.643294372448</v>
       </c>
       <c r="W34" t="n">
-        <v>383.6188956900843</v>
+        <v>803.2261243354876</v>
       </c>
       <c r="X34" t="n">
-        <v>383.6188956900843</v>
+        <v>575.2365734374703</v>
       </c>
       <c r="Y34" t="n">
-        <v>383.6188956900843</v>
+        <v>354.4439942939401</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1641.622808667129</v>
+        <v>1082.534146117595</v>
       </c>
       <c r="C35" t="n">
-        <v>1272.660291726717</v>
+        <v>713.5716291771834</v>
       </c>
       <c r="D35" t="n">
-        <v>914.3945931199664</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="E35" t="n">
-        <v>528.6063405217222</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="F35" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G35" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H35" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I35" t="n">
         <v>51.24678656800313</v>
@@ -6940,16 +6940,16 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K35" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L35" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M35" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N35" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O35" t="n">
         <v>2055.228484740841</v>
@@ -6967,22 +6967,22 @@
         <v>2437.640120926627</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.972524673063</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U35" t="n">
-        <v>1994.391463937243</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V35" t="n">
-        <v>1994.391463937243</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W35" t="n">
-        <v>1641.622808667129</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="X35" t="n">
-        <v>1641.622808667129</v>
+        <v>1291.481876182946</v>
       </c>
       <c r="Y35" t="n">
-        <v>1641.622808667129</v>
+        <v>1082.534146117595</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>238.4273302370162</v>
       </c>
       <c r="K36" t="n">
-        <v>423.1489515180662</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L36" t="n">
-        <v>717.8525085495379</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M36" t="n">
-        <v>1081.114527508758</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.399656105703</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O36" t="n">
-        <v>1800.470091281865</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P36" t="n">
-        <v>2239.04689843412</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q36" t="n">
         <v>2562.339328400156</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>834.9380653188541</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C37" t="n">
-        <v>666.0018823909472</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D37" t="n">
-        <v>515.8852429786115</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E37" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F37" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G37" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H37" t="n">
         <v>51.24678656800313</v>
@@ -7122,25 +7122,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S37" t="n">
-        <v>1533.86271359008</v>
+        <v>1463.040980963177</v>
       </c>
       <c r="T37" t="n">
-        <v>1533.86271359008</v>
+        <v>1463.040980963177</v>
       </c>
       <c r="U37" t="n">
-        <v>1244.744376093917</v>
+        <v>1173.922643467015</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.744376093917</v>
+        <v>919.2381552611278</v>
       </c>
       <c r="W37" t="n">
-        <v>1055.730644462384</v>
+        <v>629.8209852241671</v>
       </c>
       <c r="X37" t="n">
-        <v>1055.730644462384</v>
+        <v>401.8314343261497</v>
       </c>
       <c r="Y37" t="n">
-        <v>834.9380653188541</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1641.622808667129</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="C38" t="n">
-        <v>1272.660291726717</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D38" t="n">
-        <v>914.3945931199664</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E38" t="n">
-        <v>528.6063405217222</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F38" t="n">
-        <v>117.6204357321147</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G38" t="n">
         <v>117.6204357321147</v>
@@ -7171,55 +7171,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I38" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J38" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K38" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816083</v>
       </c>
       <c r="L38" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M38" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N38" t="n">
         <v>1656.671415230817</v>
       </c>
       <c r="O38" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P38" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q38" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R38" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S38" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T38" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U38" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V38" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="W38" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="X38" t="n">
-        <v>2418.361980707062</v>
+        <v>1720.23867537149</v>
       </c>
       <c r="Y38" t="n">
-        <v>2028.22264873125</v>
+        <v>1330.099343395678</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C39" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D39" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E39" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F39" t="n">
-        <v>302.1446891756898</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G39" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H39" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I39" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J39" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K39" t="n">
-        <v>614.5430248380228</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L39" t="n">
-        <v>909.2465818694945</v>
+        <v>1117.223096727986</v>
       </c>
       <c r="M39" t="n">
-        <v>1272.508600828715</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.79372942566</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O39" t="n">
-        <v>1991.864164601822</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P39" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q39" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R39" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S39" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T39" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U39" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V39" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W39" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X39" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y39" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="40">
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>834.93213173611</v>
+        <v>398.5991786999836</v>
       </c>
       <c r="C40" t="n">
-        <v>834.93213173611</v>
+        <v>229.6629957720766</v>
       </c>
       <c r="D40" t="n">
-        <v>684.8154923237743</v>
+        <v>229.6629957720766</v>
       </c>
       <c r="E40" t="n">
-        <v>536.9023987413811</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F40" t="n">
-        <v>390.0124512434708</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G40" t="n">
-        <v>222.0259865517494</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H40" t="n">
-        <v>73.28708841525557</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I40" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J40" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K40" t="n">
         <v>248.4064713020476</v>
@@ -7368,16 +7368,16 @@
         <v>1124.349301773071</v>
       </c>
       <c r="V40" t="n">
-        <v>1124.349301773071</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W40" t="n">
-        <v>834.93213173611</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X40" t="n">
-        <v>834.93213173611</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y40" t="n">
-        <v>834.93213173611</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1468.82888120725</v>
+        <v>1124.557533966791</v>
       </c>
       <c r="C41" t="n">
-        <v>1468.82888120725</v>
+        <v>1124.557533966791</v>
       </c>
       <c r="D41" t="n">
-        <v>1110.563182600499</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="E41" t="n">
-        <v>1110.563182600499</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F41" t="n">
-        <v>699.5772778108919</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G41" t="n">
-        <v>283.8725275351808</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H41" t="n">
         <v>51.24678656800313</v>
@@ -7438,25 +7438,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S41" t="n">
-        <v>2437.640120926627</v>
+        <v>2448.569977380418</v>
       </c>
       <c r="T41" t="n">
-        <v>2228.894479532451</v>
+        <v>2448.569977380418</v>
       </c>
       <c r="U41" t="n">
-        <v>2228.894479532451</v>
+        <v>2194.988916644597</v>
       </c>
       <c r="V41" t="n">
-        <v>2228.894479532451</v>
+        <v>1863.926029301027</v>
       </c>
       <c r="W41" t="n">
-        <v>2228.894479532451</v>
+        <v>1511.157374030913</v>
       </c>
       <c r="X41" t="n">
-        <v>1855.428721271372</v>
+        <v>1511.157374030913</v>
       </c>
       <c r="Y41" t="n">
-        <v>1855.428721271372</v>
+        <v>1511.157374030913</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C42" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D42" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E42" t="n">
-        <v>448.679247148805</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F42" t="n">
-        <v>302.1446891756899</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G42" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H42" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I42" t="n">
         <v>51.24678656800313</v>
       </c>
       <c r="J42" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K42" t="n">
-        <v>507.2413987429752</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L42" t="n">
-        <v>801.944955774447</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M42" t="n">
-        <v>1165.206974733667</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.492103330612</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O42" t="n">
-        <v>1884.562538506774</v>
+        <v>2102.578639884742</v>
       </c>
       <c r="P42" t="n">
-        <v>2447.023413292609</v>
+        <v>2349.761373717039</v>
       </c>
       <c r="Q42" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676483</v>
       </c>
       <c r="R42" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S42" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T42" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U42" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V42" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W42" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X42" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y42" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>494.7887257848004</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C43" t="n">
-        <v>494.7887257848004</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D43" t="n">
-        <v>494.7887257848004</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E43" t="n">
-        <v>346.8756322024072</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F43" t="n">
-        <v>199.9856847044969</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G43" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H43" t="n">
         <v>51.24678656800313</v>
@@ -7593,28 +7593,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R43" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S43" t="n">
-        <v>1439.817372234359</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T43" t="n">
-        <v>1328.00872152381</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U43" t="n">
-        <v>1038.890384027648</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V43" t="n">
-        <v>784.205895821761</v>
+        <v>1157.264802049561</v>
       </c>
       <c r="W43" t="n">
-        <v>494.7887257848004</v>
+        <v>867.8476320126</v>
       </c>
       <c r="X43" t="n">
-        <v>494.7887257848004</v>
+        <v>867.8476320126</v>
       </c>
       <c r="Y43" t="n">
-        <v>494.7887257848004</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1768.949738926588</v>
+        <v>1990.953909778728</v>
       </c>
       <c r="C44" t="n">
-        <v>1399.987221986177</v>
+        <v>1621.991392838317</v>
       </c>
       <c r="D44" t="n">
-        <v>1041.721523379426</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E44" t="n">
         <v>877.9374416333219</v>
@@ -7654,10 +7654,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L44" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M44" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N44" t="n">
         <v>1656.671415230817</v>
@@ -7678,22 +7678,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T44" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U44" t="n">
-        <v>2100.012626270159</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V44" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W44" t="n">
-        <v>1768.949738926588</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X44" t="n">
-        <v>1768.949738926588</v>
+        <v>2188.873570139075</v>
       </c>
       <c r="Y44" t="n">
-        <v>1768.949738926588</v>
+        <v>2188.873570139075</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D45" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542602</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756897</v>
       </c>
       <c r="G45" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H45" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I45" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J45" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K45" t="n">
-        <v>590.2049751143493</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L45" t="n">
-        <v>884.908532145821</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M45" t="n">
-        <v>1248.170551105041</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N45" t="n">
-        <v>1635.455679701986</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O45" t="n">
-        <v>1967.526114878148</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P45" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R45" t="n">
         <v>2562.339328400155</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.4655134886758</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="C46" t="n">
-        <v>131.4655134886758</v>
+        <v>411.3114606023164</v>
       </c>
       <c r="D46" t="n">
-        <v>131.4655134886758</v>
+        <v>261.1948211899806</v>
       </c>
       <c r="E46" t="n">
-        <v>131.4655134886758</v>
+        <v>113.2817276075875</v>
       </c>
       <c r="F46" t="n">
-        <v>131.4655134886758</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G46" t="n">
-        <v>131.4655134886758</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H46" t="n">
         <v>51.2467865680031</v>
@@ -7848,10 +7848,10 @@
         <v>580.2476435302233</v>
       </c>
       <c r="X46" t="n">
-        <v>352.2580926322059</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y46" t="n">
-        <v>131.4655134886758</v>
+        <v>580.2476435302233</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>79.82100350776379</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K2" t="n">
-        <v>68.37996426625614</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L2" t="n">
-        <v>47.55688531513388</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M2" t="n">
-        <v>20.92686739226636</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N2" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.14966087982927</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P2" t="n">
-        <v>59.72805697682125</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q2" t="n">
-        <v>93.51262335026308</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>66.54876907979121</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K3" t="n">
-        <v>34.79817869043559</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.12044141380176</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q3" t="n">
-        <v>58.52562482607891</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>66.85797092510069</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L4" t="n">
-        <v>55.34730792350439</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M4" t="n">
-        <v>55.06478097631943</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N4" t="n">
-        <v>45.81856870604673</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O4" t="n">
-        <v>62.83913578423567</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P4" t="n">
-        <v>73.02425275703001</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>79.82100350776379</v>
+        <v>71.92258334679383</v>
       </c>
       <c r="K5" t="n">
-        <v>68.37996426625614</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L5" t="n">
-        <v>47.55688531513388</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M5" t="n">
-        <v>20.92686739226636</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N5" t="n">
-        <v>16.60507348116786</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>29.14966087982927</v>
+        <v>13.46996085601003</v>
       </c>
       <c r="P5" t="n">
-        <v>59.72805697682125</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q5" t="n">
-        <v>93.51262335026308</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>66.54876907979121</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K6" t="n">
-        <v>34.79817869043559</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>12.12044141380176</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q6" t="n">
-        <v>58.52562482607891</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>66.85797092510069</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L7" t="n">
-        <v>55.34730792350439</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M7" t="n">
-        <v>55.06478097631943</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N7" t="n">
-        <v>45.81856870604673</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O7" t="n">
-        <v>62.83913578423567</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P7" t="n">
-        <v>73.02425275703001</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>71.92258334679384</v>
+        <v>71.92258334679381</v>
       </c>
       <c r="K8" t="n">
-        <v>56.54227989916996</v>
+        <v>56.54227989916993</v>
       </c>
       <c r="L8" t="n">
-        <v>32.8711910981084</v>
+        <v>32.87119109810837</v>
       </c>
       <c r="M8" t="n">
-        <v>4.586202945486122</v>
+        <v>4.586202945486093</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>13.46996085601006</v>
+        <v>13.46996085601</v>
       </c>
       <c r="P8" t="n">
-        <v>46.34579576917247</v>
+        <v>46.34579576917244</v>
       </c>
       <c r="Q8" t="n">
-        <v>83.46310250126157</v>
+        <v>83.46310250126155</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>61.84452414151258</v>
+        <v>61.84452414151257</v>
       </c>
       <c r="K9" t="n">
-        <v>26.75787480980772</v>
+        <v>26.7578748098077</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.612367688219109</v>
+        <v>2.612367688219081</v>
       </c>
       <c r="Q9" t="n">
-        <v>52.16972933916271</v>
+        <v>52.1697293391627</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8613,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>62.00809140979796</v>
+        <v>62.00809140979794</v>
       </c>
       <c r="L10" t="n">
-        <v>49.14113189899257</v>
+        <v>49.14113189899255</v>
       </c>
       <c r="M10" t="n">
-        <v>48.52123852856002</v>
+        <v>48.52123852856</v>
       </c>
       <c r="N10" t="n">
-        <v>39.43061707215854</v>
+        <v>39.43061707215853</v>
       </c>
       <c r="O10" t="n">
-        <v>56.93882853040726</v>
+        <v>56.93882853040725</v>
       </c>
       <c r="P10" t="n">
-        <v>67.97552059180407</v>
+        <v>67.97552059180406</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>99.37288961069063</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>66.78462588923487</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8856,7 +8856,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>118.0172116724295</v>
       </c>
       <c r="N13" t="n">
         <v>171.8177168444618</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>99.37288961069063</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>66.78462588923487</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9102,10 +9102,10 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>77.96696197637812</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>45.47810137061686</v>
+        <v>47.48234278366493</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>49.56452952427699</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>82.86058633578261</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>82.63055718202406</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>45.47810137061688</v>
+        <v>47.48234278366493</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>49.56452952427739</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>39.40010817739798</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,10 +9719,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>342.904471462189</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>162.0073097921349</v>
       </c>
       <c r="P24" t="n">
-        <v>265.0304328515143</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>211.0329012241556</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>154.0169020165197</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>168.743458178064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>54.95314511566615</v>
       </c>
       <c r="K33" t="n">
-        <v>186.449012614386</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>193.3273467878357</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111066</v>
       </c>
       <c r="R36" t="n">
         <v>20.93778120154988</v>
@@ -10901,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>193.327346787835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>265.0304328515153</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>20.93778120154988</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>211.0329012241554</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>305.160150103916</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>73.66059580999811</v>
       </c>
       <c r="R42" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>168.7434581780638</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>414.1100848867438</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H2" t="n">
-        <v>327.2605483852552</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I2" t="n">
-        <v>164.496149114352</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>74.95115227296735</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S2" t="n">
-        <v>181.8424978167795</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8750126833486</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H3" t="n">
-        <v>106.0724961650838</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I3" t="n">
-        <v>67.42608682026646</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>60.5380826090839</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S3" t="n">
-        <v>159.8302714297086</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T3" t="n">
-        <v>197.5926354715572</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H4" t="n">
-        <v>157.4706880844321</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I4" t="n">
-        <v>139.362079762321</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J4" t="n">
-        <v>55.53588833985387</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,19 +22749,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>41.36451971353327</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R4" t="n">
-        <v>153.2386143258456</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S4" t="n">
-        <v>214.6933049501571</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T4" t="n">
-        <v>225.6597533558751</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22798,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>414.1100848867438</v>
+        <v>414.0170240739369</v>
       </c>
       <c r="H5" t="n">
-        <v>327.2605483852552</v>
+        <v>326.3074893360965</v>
       </c>
       <c r="I5" t="n">
-        <v>164.496149114352</v>
+        <v>160.9084221286138</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>74.95115227296735</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S5" t="n">
-        <v>181.8424978167795</v>
+        <v>179.7218745449422</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8750126833486</v>
+        <v>217.4676389752864</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2502406975652</v>
+        <v>251.2427958325407</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22877,13 +22877,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.7053917498219</v>
+        <v>136.6555998253092</v>
       </c>
       <c r="H6" t="n">
-        <v>106.0724961650838</v>
+        <v>105.5916109993956</v>
       </c>
       <c r="I6" t="n">
-        <v>67.42608682026646</v>
+        <v>65.71175959472041</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>60.5380826090839</v>
+        <v>57.4466155766215</v>
       </c>
       <c r="S6" t="n">
-        <v>159.8302714297086</v>
+        <v>158.905408270449</v>
       </c>
       <c r="T6" t="n">
-        <v>197.5926354715572</v>
+        <v>197.3919390740697</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8994001458834</v>
+        <v>225.8961243613761</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.4559964478956</v>
+        <v>167.4142525710033</v>
       </c>
       <c r="H7" t="n">
-        <v>157.4706880844321</v>
+        <v>157.0995470698808</v>
       </c>
       <c r="I7" t="n">
-        <v>139.362079762321</v>
+        <v>138.1067275372333</v>
       </c>
       <c r="J7" t="n">
-        <v>55.53588833985387</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>41.36451971353327</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R7" t="n">
-        <v>153.2386143258456</v>
+        <v>151.3616578248528</v>
       </c>
       <c r="S7" t="n">
-        <v>214.6933049501571</v>
+        <v>213.9658230228616</v>
       </c>
       <c r="T7" t="n">
-        <v>225.6597533558751</v>
+        <v>225.481393154608</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2898484704602</v>
+        <v>286.2875715317206</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>69.10542099048568</v>
+        <v>69.10542099048567</v>
       </c>
       <c r="S8" t="n">
         <v>179.7218745449422</v>
@@ -23202,7 +23202,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J10" t="n">
-        <v>52.58459624356988</v>
+        <v>52.58459624356987</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,7 +23223,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.86903925848996</v>
+        <v>37.86903925848995</v>
       </c>
       <c r="R10" t="n">
         <v>151.3616578248528</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>174.596860236385</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>149.1202946442038</v>
+        <v>173.1089558044322</v>
       </c>
       <c r="H11" t="n">
-        <v>314.193632629268</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>115.3066195468971</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.2897156032232</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1481678782825</v>
+        <v>11.34683808079603</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>292.6710151225161</v>
       </c>
       <c r="X11" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>122.5240586545474</v>
+        <v>146.429990514549</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>143.9267031654047</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,19 +23345,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S12" t="n">
-        <v>147.1499354121988</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>11.88703501941501</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>179.2749307381065</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I13" t="n">
-        <v>7.796434036440004</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J13" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>204.7191642435938</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2586305026775</v>
+        <v>46.4527065165924</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>12.32969518232341</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>76.56095607457695</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>412.83417464571</v>
+        <v>173.1089558044322</v>
       </c>
       <c r="H14" t="n">
-        <v>314.193632629268</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>35.79512724079272</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>212.2897156032232</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1481678782825</v>
+        <v>39.93194549926352</v>
       </c>
       <c r="V14" t="n">
-        <v>64.03837846862871</v>
+        <v>87.94431032863031</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>109.4330205759084</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23573,28 +23573,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.4359458057691</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>53.77375878556887</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I15" t="n">
-        <v>43.92180400150558</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,25 +23621,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>18.15252495527767</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S15" t="n">
-        <v>147.1499354121988</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T15" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8544875035546</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.3821593358568</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>122.1505735248085</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07219909888208</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>127.5046028836639</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>204.7191642435938</v>
+        <v>50.24187419233263</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>22.54475050117128</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>22.8091183350848</v>
+        <v>46.71505019508641</v>
       </c>
       <c r="X16" t="n">
-        <v>205.0685790855981</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>49.82609385152779</v>
+        <v>59.04595438609647</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>49.02262226030899</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>225.4446633602884</v>
+        <v>127.5223363973473</v>
       </c>
       <c r="H17" t="n">
-        <v>311.7413289543296</v>
+        <v>312.068090538655</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>107.3051586462886</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>147.3111454152449</v>
+        <v>148.0382128731055</v>
       </c>
       <c r="T17" t="n">
-        <v>211.2415076855333</v>
+        <v>211.3811780221996</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1290115942356</v>
+        <v>251.1315641075271</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>4.064371192750798</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>36.82335286651625</v>
+        <v>46.04321340108493</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>113.4308245438512</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.8946006418812</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.24196099102505</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.51069121792255</v>
+        <v>40.09845782143577</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>11.25783851896323</v>
       </c>
       <c r="S18" t="n">
-        <v>144.7701822098454</v>
+        <v>145.0872766768363</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>8.403105606448065</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8460586256242</v>
+        <v>225.8471817465226</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>103.2472949846926</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7905685391008</v>
       </c>
       <c r="H19" t="n">
-        <v>151.4271812841736</v>
+        <v>151.5544290407843</v>
       </c>
       <c r="I19" t="n">
-        <v>118.9204432641051</v>
+        <v>119.3508477414753</v>
       </c>
       <c r="J19" t="n">
-        <v>7.478268313667343</v>
+        <v>8.490135188065096</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6750308554175</v>
+        <v>123.3185558085835</v>
       </c>
       <c r="S19" t="n">
-        <v>202.8472900870736</v>
+        <v>203.0967113032522</v>
       </c>
       <c r="T19" t="n">
-        <v>222.7554095970596</v>
+        <v>166.0128591049893</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>73.96829792975865</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>79.68697328317126</v>
+        <v>163.2538400152684</v>
       </c>
       <c r="H20" t="n">
-        <v>311.7413289543296</v>
+        <v>312.068090538655</v>
       </c>
       <c r="I20" t="n">
-        <v>106.0750865379323</v>
+        <v>107.3051586462886</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.2415076855333</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>100.0595233948949</v>
+        <v>251.1315641075271</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>25.5530814400289</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>46.04321340108493</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24053,22 +24053,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>125.2466548724731</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.8946006418812</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.406835138915</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>40.09845782143577</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.19791188974882</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>144.7701822098454</v>
+        <v>145.0872766768363</v>
       </c>
       <c r="T21" t="n">
-        <v>194.3245783303401</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>88.25197587136935</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>88.6173457459867</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7762564192366</v>
+        <v>166.7905685391008</v>
       </c>
       <c r="H22" t="n">
-        <v>151.4271812841736</v>
+        <v>151.5544290407843</v>
       </c>
       <c r="I22" t="n">
-        <v>118.9204432641051</v>
+        <v>119.3508477414753</v>
       </c>
       <c r="J22" t="n">
-        <v>7.478268313667357</v>
+        <v>8.490135188065096</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6750308554176</v>
+        <v>123.3185558085835</v>
       </c>
       <c r="S22" t="n">
-        <v>202.8472900870737</v>
+        <v>203.0967113032522</v>
       </c>
       <c r="T22" t="n">
-        <v>222.7554095970596</v>
+        <v>222.8165613819339</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>76.71504669184284</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>338.0708630229646</v>
       </c>
       <c r="X23" t="n">
-        <v>4.329853386520938</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>133.9803247841259</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T25" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>190.3367290946032</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>326.677541281423</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U26" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>187.114447051126</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T28" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>23.19311344618865</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.536750606735097</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>166.6667845776736</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H29" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U29" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>156.0415408865664</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>21.32491501646237</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.00450837146525</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24925,7 +24925,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>101.1179978559677</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>18.80779066025946</v>
       </c>
     </row>
     <row r="33">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>140.3052480390351</v>
       </c>
       <c r="F34" t="n">
-        <v>144.8201131922205</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.3066000448042</v>
@@ -25125,10 +25125,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H35" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>18.88726468920524</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>179.379685891356</v>
       </c>
     </row>
     <row r="36">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I37" t="n">
         <v>104.7965952039006</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>194.6624603617375</v>
+        <v>124.5489450611037</v>
       </c>
       <c r="T37" t="n">
         <v>220.7486959972119</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>99.39940402137299</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>301.0185525624054</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>350.6457418611005</v>
+        <v>117.2071046875789</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>115.2229635574677</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I40" t="n">
-        <v>82.97669637512064</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H41" t="n">
-        <v>70.71906900489952</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>65.70991267247047</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>10.82055788925307</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U41" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I43" t="n">
         <v>104.7965952039006</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T43" t="n">
-        <v>110.0581317937691</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>100.054406895926</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>186.7933779067372</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>219.7841291436184</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26025,22 +26025,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>84.00645639374267</v>
       </c>
       <c r="G46" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H46" t="n">
-        <v>67.83496950366283</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I46" t="n">
         <v>104.7965952039006</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>333897.2422785219</v>
+        <v>332558.4370874788</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>333897.2422785219</v>
+        <v>332558.4370874788</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552142.5355463979</v>
+        <v>532290.3838561783</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>552142.5355463979</v>
+        <v>532290.3838561783</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>602780.2595589274</v>
+        <v>596032.9455561534</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>602780.2595589269</v>
+        <v>596032.9455561532</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>826478.5981064702</v>
+        <v>826478.5981064703</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>826478.5981064703</v>
+        <v>826478.5981064704</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>826478.5981064702</v>
+        <v>826478.5981064701</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100952.6603979177</v>
+        <v>101620.6442196286</v>
       </c>
       <c r="C2" t="n">
-        <v>100952.6603979177</v>
+        <v>101620.6442196286</v>
       </c>
       <c r="D2" t="n">
-        <v>101620.6442196285</v>
+        <v>101620.6442196286</v>
       </c>
       <c r="E2" t="n">
-        <v>173371.5940175455</v>
+        <v>167228.6351463479</v>
       </c>
       <c r="F2" t="n">
-        <v>173371.5940175455</v>
+        <v>167228.6351463479</v>
       </c>
       <c r="G2" t="n">
-        <v>189401.5272737741</v>
+        <v>187265.5901788028</v>
       </c>
       <c r="H2" t="n">
-        <v>189401.527273774</v>
+        <v>187265.5901788028</v>
       </c>
       <c r="I2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201624</v>
       </c>
       <c r="J2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201622</v>
       </c>
       <c r="K2" t="n">
-        <v>260075.8859201623</v>
+        <v>260075.8859201621</v>
       </c>
       <c r="L2" t="n">
         <v>260075.8859201623</v>
       </c>
       <c r="M2" t="n">
-        <v>260075.8859201624</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="N2" t="n">
         <v>260075.8859201623</v>
       </c>
       <c r="O2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201623</v>
       </c>
       <c r="P2" t="n">
-        <v>260075.8859201622</v>
+        <v>260075.8859201621</v>
       </c>
     </row>
     <row r="3">
@@ -26365,28 +26365,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>285877.3248289937</v>
+        <v>308183.8838205543</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19825.02250612895</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>315127.476685547</v>
+        <v>291456.5305751134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>65275.29190157534</v>
+        <v>79129.66401560622</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>277868.1191860285</v>
+        <v>286294.2325270079</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>65718.55375189535</v>
+        <v>59761.09990865552</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16651.57348245184</v>
+        <v>20185.79123298854</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19162.477508543</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="C4" t="n">
-        <v>19162.477508543</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="D4" t="n">
-        <v>15741.13452040118</v>
+        <v>15741.13452040117</v>
       </c>
       <c r="E4" t="n">
-        <v>11859.77526465972</v>
+        <v>11138.47116666974</v>
       </c>
       <c r="F4" t="n">
-        <v>11859.77526465972</v>
+        <v>11138.47116666974</v>
       </c>
       <c r="G4" t="n">
-        <v>12575.52330959163</v>
+        <v>12480.15218262644</v>
       </c>
       <c r="H4" t="n">
-        <v>12575.52330959164</v>
+        <v>12480.15218262645</v>
       </c>
       <c r="I4" t="n">
+        <v>16175.5925603516</v>
+      </c>
+      <c r="J4" t="n">
         <v>16175.59256035157</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16175.59256035158</v>
       </c>
       <c r="K4" t="n">
         <v>16175.59256035157</v>
       </c>
       <c r="L4" t="n">
+        <v>16175.59256035158</v>
+      </c>
+      <c r="M4" t="n">
         <v>16175.59256035159</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>16175.59256035158</v>
       </c>
-      <c r="N4" t="n">
-        <v>16175.59256035157</v>
-      </c>
       <c r="O4" t="n">
-        <v>16175.59256035157</v>
+        <v>16175.59256035159</v>
       </c>
       <c r="P4" t="n">
-        <v>16175.59256035157</v>
+        <v>16175.59256035156</v>
       </c>
     </row>
     <row r="5">
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40095.05704060869</v>
+        <v>40599.70256325733</v>
       </c>
       <c r="C5" t="n">
-        <v>40095.05704060869</v>
+        <v>40599.70256325733</v>
       </c>
       <c r="D5" t="n">
         <v>40599.70256325733</v>
       </c>
       <c r="E5" t="n">
-        <v>29420.2032042662</v>
+        <v>27518.10223437329</v>
       </c>
       <c r="F5" t="n">
-        <v>29420.2032042662</v>
+        <v>27518.10223437329</v>
       </c>
       <c r="G5" t="n">
-        <v>34925.68710858132</v>
+        <v>34192.09906993962</v>
       </c>
       <c r="H5" t="n">
-        <v>34925.68710858132</v>
+        <v>34192.09906993962</v>
       </c>
       <c r="I5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984475</v>
       </c>
       <c r="J5" t="n">
         <v>59310.17243984473</v>
@@ -26505,7 +26505,7 @@
         <v>59310.17243984473</v>
       </c>
       <c r="N5" t="n">
-        <v>59310.17243984472</v>
+        <v>59310.17243984473</v>
       </c>
       <c r="O5" t="n">
         <v>59310.17243984473</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258769.851438722</v>
+        <v>-264358.9126138353</v>
       </c>
       <c r="C6" t="n">
-        <v>27107.47339027169</v>
+        <v>43824.97120671895</v>
       </c>
       <c r="D6" t="n">
-        <v>10906.42533732981</v>
+        <v>43824.97120671895</v>
       </c>
       <c r="E6" t="n">
-        <v>-193363.576323679</v>
+        <v>-163953.3754006671</v>
       </c>
       <c r="F6" t="n">
-        <v>121763.9003618681</v>
+        <v>127503.1551744462</v>
       </c>
       <c r="G6" t="n">
-        <v>67240.24701764071</v>
+        <v>60512.63278113924</v>
       </c>
       <c r="H6" t="n">
-        <v>132515.538919216</v>
+        <v>139642.2967967455</v>
       </c>
       <c r="I6" t="n">
-        <v>-98505.46098795415</v>
+        <v>-102226.8578792311</v>
       </c>
       <c r="J6" t="n">
-        <v>179362.6581980743</v>
+        <v>184067.3746477769</v>
       </c>
       <c r="K6" t="n">
-        <v>179362.6581980743</v>
+        <v>184067.3746477767</v>
       </c>
       <c r="L6" t="n">
-        <v>179362.6581980744</v>
+        <v>184067.3746477768</v>
       </c>
       <c r="M6" t="n">
-        <v>113644.1044461791</v>
+        <v>124306.2747391213</v>
       </c>
       <c r="N6" t="n">
-        <v>179362.6581980743</v>
+        <v>184067.3746477768</v>
       </c>
       <c r="O6" t="n">
-        <v>162711.0847156224</v>
+        <v>163881.5834147883</v>
       </c>
       <c r="P6" t="n">
-        <v>179362.6581980743</v>
+        <v>184067.3746477767</v>
       </c>
     </row>
   </sheetData>
@@ -26737,31 +26737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="D3" t="n">
         <v>319.8212184980426</v>
       </c>
       <c r="E3" t="n">
-        <v>614.0550137694784</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="F3" t="n">
-        <v>614.0550137694784</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="G3" t="n">
-        <v>673.6190844777334</v>
+        <v>665.6823634621409</v>
       </c>
       <c r="H3" t="n">
-        <v>673.6190844777333</v>
+        <v>665.6823634621409</v>
       </c>
       <c r="I3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="J3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="K3" t="n">
         <v>934.0648921175393</v>
@@ -26798,22 +26798,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="F4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="G4" t="n">
-        <v>332.9077478119528</v>
+        <v>323.6878872773841</v>
       </c>
       <c r="H4" t="n">
-        <v>332.9077478119528</v>
+        <v>323.6878872773841</v>
       </c>
       <c r="I4" t="n">
+        <v>640.5848321000393</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>640.5848321000389</v>
@@ -26825,7 +26825,7 @@
         <v>640.5848321000391</v>
       </c>
       <c r="N4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O4" t="n">
         <v>640.5848321000391</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>296.6723413123253</v>
+        <v>319.8212184980426</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.14887718571737</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>294.2337952714357</v>
+        <v>273.654881840022</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>59.56407070825504</v>
+        <v>72.20626312407626</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>260.445807639806</v>
+        <v>268.3825286553986</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,19 +27020,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>69.19386781044659</v>
+        <v>83.8799391358795</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>307.6770842880861</v>
+        <v>316.8969448226552</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.19386781044682</v>
+        <v>83.8799391358795</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>263.7138800015062</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69.19386781044659</v>
+        <v>83.8799391358795</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.192652628391256</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H2" t="n">
-        <v>12.21425373051196</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I2" t="n">
-        <v>45.97974045605396</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J2" t="n">
-        <v>101.2249010189225</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K2" t="n">
-        <v>151.7098867787244</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L2" t="n">
-        <v>188.2095296548534</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M2" t="n">
-        <v>209.4193658350064</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N2" t="n">
-        <v>212.8079901154231</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>200.9485505418575</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P2" t="n">
-        <v>171.5049387784483</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q2" t="n">
-        <v>128.7930665241864</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R2" t="n">
-        <v>74.91796566818233</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S2" t="n">
-        <v>27.17757176946579</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T2" t="n">
-        <v>5.220836880782728</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U2" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,19 +31120,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H3" t="n">
-        <v>6.162948071412645</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I3" t="n">
-        <v>21.97054603114862</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J3" t="n">
-        <v>60.28885758687547</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K3" t="n">
-        <v>103.0432602839234</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -31147,22 +31147,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>121.8539660005285</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q3" t="n">
-        <v>81.45614925994261</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R3" t="n">
-        <v>39.61975154355923</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S3" t="n">
-        <v>11.85289967412921</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T3" t="n">
-        <v>2.572093223264404</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H4" t="n">
-        <v>4.756484423007447</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I4" t="n">
-        <v>16.08839516493725</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J4" t="n">
-        <v>37.82329177681891</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K4" t="n">
-        <v>62.15528724543469</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L4" t="n">
-        <v>79.5373683577339</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M4" t="n">
-        <v>83.86100297128563</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N4" t="n">
-        <v>81.86697575918646</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O4" t="n">
-        <v>75.61740266760712</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P4" t="n">
-        <v>64.7037512921176</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.79752353816112</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R4" t="n">
-        <v>24.05477705132394</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S4" t="n">
-        <v>9.323293086815202</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T4" t="n">
-        <v>2.28583607240644</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U4" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.192652628391256</v>
+        <v>1.28571344119816</v>
       </c>
       <c r="H5" t="n">
-        <v>12.21425373051196</v>
+        <v>13.16731277967066</v>
       </c>
       <c r="I5" t="n">
-        <v>45.97974045605396</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J5" t="n">
-        <v>101.2249010189225</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K5" t="n">
-        <v>151.7098867787244</v>
+        <v>163.5475711458106</v>
       </c>
       <c r="L5" t="n">
-        <v>188.2095296548534</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M5" t="n">
-        <v>209.4193658350064</v>
+        <v>225.7600302817866</v>
       </c>
       <c r="N5" t="n">
-        <v>212.8079901154231</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>200.9485505418575</v>
+        <v>216.6282505656767</v>
       </c>
       <c r="P5" t="n">
-        <v>171.5049387784483</v>
+        <v>184.8871999860971</v>
       </c>
       <c r="Q5" t="n">
-        <v>128.7930665241864</v>
+        <v>138.8425873731879</v>
       </c>
       <c r="R5" t="n">
-        <v>74.91796566818233</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S5" t="n">
-        <v>27.17757176946579</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T5" t="n">
-        <v>5.220836880782728</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09541221027130049</v>
+        <v>0.1028570752958528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6381254133887752</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H6" t="n">
-        <v>6.162948071412645</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I6" t="n">
-        <v>21.97054603114862</v>
+        <v>23.68487325669467</v>
       </c>
       <c r="J6" t="n">
-        <v>60.28885758687547</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K6" t="n">
-        <v>103.0432602839234</v>
+        <v>111.0835641645513</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
@@ -31384,22 +31384,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>121.8539660005285</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.45614925994261</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R6" t="n">
-        <v>39.61975154355923</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S6" t="n">
-        <v>11.85289967412921</v>
+        <v>12.77776283338877</v>
       </c>
       <c r="T6" t="n">
-        <v>2.572093223264404</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0419819350913668</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5349829105632095</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H7" t="n">
-        <v>4.756484423007447</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I7" t="n">
-        <v>16.08839516493725</v>
+        <v>17.343747390025</v>
       </c>
       <c r="J7" t="n">
-        <v>37.82329177681891</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K7" t="n">
-        <v>62.15528724543469</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L7" t="n">
-        <v>79.5373683577339</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M7" t="n">
-        <v>83.86100297128563</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N7" t="n">
-        <v>81.86697575918646</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O7" t="n">
-        <v>75.61740266760712</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P7" t="n">
-        <v>64.7037512921176</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.79752353816112</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R7" t="n">
-        <v>24.05477705132394</v>
+        <v>25.93173355231669</v>
       </c>
       <c r="S7" t="n">
-        <v>9.323293086815202</v>
+        <v>10.05077501411061</v>
       </c>
       <c r="T7" t="n">
-        <v>2.28583607240644</v>
+        <v>2.464196273673442</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02918088603072055</v>
+        <v>0.03145782477029931</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,16 +31521,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I8" t="n">
-        <v>49.56746744179212</v>
+        <v>49.56746744179213</v>
       </c>
       <c r="J8" t="n">
-        <v>109.1233211798924</v>
+        <v>109.1233211798925</v>
       </c>
       <c r="K8" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L8" t="n">
-        <v>202.8952238718788</v>
+        <v>202.8952238718789</v>
       </c>
       <c r="M8" t="n">
         <v>225.7600302817866</v>
@@ -31548,13 +31548,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R8" t="n">
-        <v>80.763696950664</v>
+        <v>80.76369695066401</v>
       </c>
       <c r="S8" t="n">
-        <v>29.2981950413031</v>
+        <v>29.29819504130311</v>
       </c>
       <c r="T8" t="n">
-        <v>5.628210588844949</v>
+        <v>5.62821058884495</v>
       </c>
       <c r="U8" t="n">
         <v>0.1028570752958528</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6879173379014502</v>
+        <v>0.6879173379014503</v>
       </c>
       <c r="H9" t="n">
-        <v>6.643833237100848</v>
+        <v>6.643833237100849</v>
       </c>
       <c r="I9" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J9" t="n">
-        <v>64.99310252515411</v>
+        <v>64.99310252515413</v>
       </c>
       <c r="K9" t="n">
         <v>111.0835641645513</v>
@@ -31621,22 +31621,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>131.3620397261111</v>
+        <v>131.3620397261112</v>
       </c>
       <c r="Q9" t="n">
-        <v>87.8120447468588</v>
+        <v>87.81204474685882</v>
       </c>
       <c r="R9" t="n">
-        <v>42.71121857602163</v>
+        <v>42.71121857602164</v>
       </c>
       <c r="S9" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T9" t="n">
-        <v>2.772789620751896</v>
+        <v>2.772789620751897</v>
       </c>
       <c r="U9" t="n">
-        <v>0.04525771959877963</v>
+        <v>0.04525771959877964</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,37 +31673,37 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5767267874554866</v>
+        <v>0.5767267874554867</v>
       </c>
       <c r="H10" t="n">
-        <v>5.127625437558784</v>
+        <v>5.127625437558785</v>
       </c>
       <c r="I10" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J10" t="n">
-        <v>40.7745838731029</v>
+        <v>40.77458387310291</v>
       </c>
       <c r="K10" t="n">
-        <v>67.00516676073742</v>
+        <v>67.00516676073744</v>
       </c>
       <c r="L10" t="n">
-        <v>85.74354438224572</v>
+        <v>85.74354438224573</v>
       </c>
       <c r="M10" t="n">
-        <v>90.40454541904504</v>
+        <v>90.40454541904505</v>
       </c>
       <c r="N10" t="n">
-        <v>88.25492739307465</v>
+        <v>88.25492739307467</v>
       </c>
       <c r="O10" t="n">
-        <v>81.51770992143553</v>
+        <v>81.51770992143554</v>
       </c>
       <c r="P10" t="n">
-        <v>69.75248345734354</v>
+        <v>69.75248345734356</v>
       </c>
       <c r="Q10" t="n">
-        <v>48.29300399320443</v>
+        <v>48.29300399320444</v>
       </c>
       <c r="R10" t="n">
         <v>25.93173355231669</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.468562869425037</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H11" t="n">
-        <v>25.28116948649916</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I11" t="n">
-        <v>95.16927002350883</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J11" t="n">
-        <v>209.5161878388634</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K11" t="n">
-        <v>314.0104541016253</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L11" t="n">
-        <v>389.5577350167918</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M11" t="n">
-        <v>433.4580399459293</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N11" t="n">
-        <v>440.4718441986832</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O11" t="n">
-        <v>415.925072165838</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P11" t="n">
-        <v>354.9824263269073</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q11" t="n">
-        <v>266.5770185656231</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R11" t="n">
-        <v>155.0658623465206</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S11" t="n">
-        <v>56.25237638702308</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T11" t="n">
-        <v>10.8061339609081</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.32079757678718</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H12" t="n">
-        <v>12.75612396528671</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I12" t="n">
-        <v>45.47482884990949</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J12" t="n">
-        <v>124.7864061472485</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K12" t="n">
-        <v>213.2798437919895</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L12" t="n">
-        <v>286.7810703458305</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M12" t="n">
-        <v>334.6599825043656</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N12" t="n">
-        <v>343.517436429399</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O12" t="n">
-        <v>314.2513427542726</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P12" t="n">
-        <v>252.2144074480713</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q12" t="n">
-        <v>168.5986520825179</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R12" t="n">
-        <v>82.00530919736546</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S12" t="n">
-        <v>24.53323569163905</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T12" t="n">
-        <v>5.323741109944815</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.107312319912174</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H13" t="n">
-        <v>9.84501317158279</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I13" t="n">
-        <v>33.29990140244975</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J13" t="n">
-        <v>78.28698101779069</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K13" t="n">
-        <v>128.6495586225235</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L13" t="n">
-        <v>164.6271425440336</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M13" t="n">
-        <v>173.576239384051</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N13" t="n">
-        <v>169.4489843734694</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O13" t="n">
-        <v>156.5135631817681</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P13" t="n">
-        <v>133.9243918555596</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q13" t="n">
-        <v>92.72230707919122</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R13" t="n">
-        <v>49.78878849350556</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S13" t="n">
-        <v>19.29743379337852</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T13" t="n">
-        <v>4.731243548715652</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.468562869425037</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H14" t="n">
-        <v>25.28116948649916</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I14" t="n">
-        <v>95.16927002350883</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J14" t="n">
-        <v>209.5161878388634</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K14" t="n">
-        <v>314.0104541016253</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L14" t="n">
-        <v>389.5577350167918</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M14" t="n">
-        <v>433.4580399459293</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N14" t="n">
-        <v>440.4718441986832</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O14" t="n">
-        <v>415.925072165838</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P14" t="n">
-        <v>354.9824263269073</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q14" t="n">
-        <v>266.5770185656231</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R14" t="n">
-        <v>155.0658623465206</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S14" t="n">
-        <v>56.25237638702308</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T14" t="n">
-        <v>10.8061339609081</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.32079757678718</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H15" t="n">
-        <v>12.75612396528671</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I15" t="n">
-        <v>45.47482884990949</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J15" t="n">
-        <v>124.7864061472485</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K15" t="n">
-        <v>213.2798437919895</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L15" t="n">
-        <v>286.7810703458305</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M15" t="n">
-        <v>334.6599825043656</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N15" t="n">
-        <v>343.517436429399</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O15" t="n">
-        <v>314.2513427542726</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P15" t="n">
-        <v>252.2144074480713</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q15" t="n">
-        <v>168.5986520825179</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R15" t="n">
-        <v>82.00530919736546</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S15" t="n">
-        <v>24.53323569163905</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T15" t="n">
-        <v>5.323741109944815</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.107312319912174</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H16" t="n">
-        <v>9.84501317158279</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I16" t="n">
-        <v>33.29990140244975</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J16" t="n">
-        <v>78.28698101779069</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K16" t="n">
-        <v>128.6495586225235</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L16" t="n">
-        <v>164.6271425440336</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M16" t="n">
-        <v>173.576239384051</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N16" t="n">
-        <v>169.4489843734694</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O16" t="n">
-        <v>156.5135631817681</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P16" t="n">
-        <v>133.9243918555596</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q16" t="n">
-        <v>92.72230707919122</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R16" t="n">
-        <v>49.78878849350556</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S16" t="n">
-        <v>19.29743379337852</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T16" t="n">
-        <v>4.731243548715652</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.708016420010987</v>
+        <v>2.676110003867901</v>
       </c>
       <c r="H17" t="n">
-        <v>27.73347316143752</v>
+        <v>27.40671157711215</v>
       </c>
       <c r="I17" t="n">
-        <v>104.4008030324737</v>
+        <v>103.1707309241174</v>
       </c>
       <c r="J17" t="n">
-        <v>229.8395086279077</v>
+        <v>227.1314914407835</v>
       </c>
       <c r="K17" t="n">
-        <v>344.4698436869728</v>
+        <v>340.4112279045118</v>
       </c>
       <c r="L17" t="n">
-        <v>427.3453012008841</v>
+        <v>422.3102294353841</v>
       </c>
       <c r="M17" t="n">
-        <v>475.5039882102545</v>
+        <v>469.9015007166699</v>
       </c>
       <c r="N17" t="n">
-        <v>483.1981398636107</v>
+        <v>477.5049982651596</v>
       </c>
       <c r="O17" t="n">
-        <v>456.2703015871264</v>
+        <v>450.8944294141982</v>
       </c>
       <c r="P17" t="n">
-        <v>389.4161462181052</v>
+        <v>384.8279636937093</v>
       </c>
       <c r="Q17" t="n">
-        <v>292.4353081764616</v>
+        <v>288.98977418019</v>
       </c>
       <c r="R17" t="n">
-        <v>170.1074364435153</v>
+        <v>168.1031950304672</v>
       </c>
       <c r="S17" t="n">
-        <v>61.70892417100042</v>
+        <v>60.98185671313986</v>
       </c>
       <c r="T17" t="n">
-        <v>11.8543418785981</v>
+        <v>11.71467154193174</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2166413136008789</v>
+        <v>0.214088800309432</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.448916521329464</v>
+        <v>1.431845083673284</v>
       </c>
       <c r="H18" t="n">
-        <v>13.99348324547141</v>
+        <v>13.82860909758146</v>
       </c>
       <c r="I18" t="n">
-        <v>49.88594163349253</v>
+        <v>49.2981750299793</v>
       </c>
       <c r="J18" t="n">
-        <v>136.8908367805175</v>
+        <v>135.2779602956413</v>
       </c>
       <c r="K18" t="n">
-        <v>233.9682437095916</v>
+        <v>231.2115809017513</v>
       </c>
       <c r="L18" t="n">
-        <v>314.5991771421716</v>
+        <v>310.8925038037103</v>
       </c>
       <c r="M18" t="n">
-        <v>367.1224010403647</v>
+        <v>362.7968880868667</v>
       </c>
       <c r="N18" t="n">
-        <v>376.8390385891049</v>
+        <v>372.3990421786933</v>
       </c>
       <c r="O18" t="n">
-        <v>344.7340988270151</v>
+        <v>340.6723695351958</v>
       </c>
       <c r="P18" t="n">
-        <v>276.6795066036939</v>
+        <v>273.4196107586292</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.9529229683015</v>
+        <v>182.7737689264354</v>
       </c>
       <c r="R18" t="n">
-        <v>89.95992226289432</v>
+        <v>88.89999563367991</v>
       </c>
       <c r="S18" t="n">
-        <v>26.91298889399244</v>
+        <v>26.59589442700155</v>
       </c>
       <c r="T18" t="n">
-        <v>5.840150364481479</v>
+        <v>5.771340490770823</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09532345535062269</v>
+        <v>0.09420033445218978</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.214722939222142</v>
+        <v>1.200410819357959</v>
       </c>
       <c r="H19" t="n">
-        <v>10.79999122326596</v>
+        <v>10.67274346665531</v>
       </c>
       <c r="I19" t="n">
-        <v>36.53003166315315</v>
+        <v>36.09962718578299</v>
       </c>
       <c r="J19" t="n">
-        <v>85.88091180300543</v>
+        <v>84.86904492860768</v>
       </c>
       <c r="K19" t="n">
-        <v>141.1287196659906</v>
+        <v>139.4659115581337</v>
       </c>
       <c r="L19" t="n">
-        <v>180.5961722548992</v>
+        <v>178.4683503616369</v>
       </c>
       <c r="M19" t="n">
-        <v>190.4133421909763</v>
+        <v>188.1698523471753</v>
       </c>
       <c r="N19" t="n">
-        <v>185.8857385084212</v>
+        <v>183.6955938386594</v>
       </c>
       <c r="O19" t="n">
-        <v>171.6955659911443</v>
+        <v>169.6726129034323</v>
       </c>
       <c r="P19" t="n">
-        <v>146.9152180310125</v>
+        <v>145.1842321885298</v>
       </c>
       <c r="Q19" t="n">
-        <v>101.7164817561377</v>
+        <v>100.5180368827833</v>
       </c>
       <c r="R19" t="n">
-        <v>54.61836052175194</v>
+        <v>53.97483556858602</v>
       </c>
       <c r="S19" t="n">
-        <v>21.1693079498986</v>
+        <v>20.91988673372006</v>
       </c>
       <c r="T19" t="n">
-        <v>5.190179831221879</v>
+        <v>5.129028046347641</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06625761486666237</v>
+        <v>0.06547695378316147</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.708016420010986</v>
+        <v>2.676110003867901</v>
       </c>
       <c r="H20" t="n">
-        <v>27.73347316143752</v>
+        <v>27.40671157711215</v>
       </c>
       <c r="I20" t="n">
-        <v>104.4008030324736</v>
+        <v>103.1707309241174</v>
       </c>
       <c r="J20" t="n">
-        <v>229.8395086279076</v>
+        <v>227.1314914407835</v>
       </c>
       <c r="K20" t="n">
-        <v>344.4698436869728</v>
+        <v>340.4112279045118</v>
       </c>
       <c r="L20" t="n">
-        <v>427.345301200884</v>
+        <v>422.3102294353841</v>
       </c>
       <c r="M20" t="n">
-        <v>475.5039882102544</v>
+        <v>469.9015007166699</v>
       </c>
       <c r="N20" t="n">
-        <v>483.1981398636107</v>
+        <v>477.5049982651596</v>
       </c>
       <c r="O20" t="n">
-        <v>456.2703015871264</v>
+        <v>450.8944294141982</v>
       </c>
       <c r="P20" t="n">
-        <v>389.4161462181051</v>
+        <v>384.8279636937093</v>
       </c>
       <c r="Q20" t="n">
-        <v>292.4353081764615</v>
+        <v>288.98977418019</v>
       </c>
       <c r="R20" t="n">
-        <v>170.1074364435152</v>
+        <v>168.1031950304672</v>
       </c>
       <c r="S20" t="n">
-        <v>61.7089241710004</v>
+        <v>60.98185671313986</v>
       </c>
       <c r="T20" t="n">
-        <v>11.8543418785981</v>
+        <v>11.71467154193174</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2166413136008788</v>
+        <v>0.214088800309432</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.448916521329464</v>
+        <v>1.431845083673284</v>
       </c>
       <c r="H21" t="n">
-        <v>13.9934832454714</v>
+        <v>13.82860909758146</v>
       </c>
       <c r="I21" t="n">
-        <v>49.88594163349252</v>
+        <v>49.2981750299793</v>
       </c>
       <c r="J21" t="n">
-        <v>136.8908367805175</v>
+        <v>135.2779602956413</v>
       </c>
       <c r="K21" t="n">
-        <v>233.9682437095916</v>
+        <v>231.2115809017513</v>
       </c>
       <c r="L21" t="n">
-        <v>314.5991771421716</v>
+        <v>310.8925038037103</v>
       </c>
       <c r="M21" t="n">
-        <v>367.1224010403646</v>
+        <v>362.7968880868667</v>
       </c>
       <c r="N21" t="n">
-        <v>376.8390385891048</v>
+        <v>372.3990421786933</v>
       </c>
       <c r="O21" t="n">
-        <v>344.7340988270151</v>
+        <v>340.6723695351958</v>
       </c>
       <c r="P21" t="n">
-        <v>276.6795066036939</v>
+        <v>273.4196107586292</v>
       </c>
       <c r="Q21" t="n">
-        <v>184.9529229683014</v>
+        <v>182.7737689264354</v>
       </c>
       <c r="R21" t="n">
-        <v>89.95992226289431</v>
+        <v>88.89999563367991</v>
       </c>
       <c r="S21" t="n">
-        <v>26.91298889399244</v>
+        <v>26.59589442700155</v>
       </c>
       <c r="T21" t="n">
-        <v>5.840150364481478</v>
+        <v>5.771340490770823</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09532345535062267</v>
+        <v>0.09420033445218978</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.214722939222142</v>
+        <v>1.200410819357959</v>
       </c>
       <c r="H22" t="n">
-        <v>10.79999122326596</v>
+        <v>10.67274346665531</v>
       </c>
       <c r="I22" t="n">
-        <v>36.53003166315315</v>
+        <v>36.09962718578299</v>
       </c>
       <c r="J22" t="n">
-        <v>85.88091180300542</v>
+        <v>84.86904492860768</v>
       </c>
       <c r="K22" t="n">
-        <v>141.1287196659906</v>
+        <v>139.4659115581337</v>
       </c>
       <c r="L22" t="n">
-        <v>180.5961722548992</v>
+        <v>178.4683503616369</v>
       </c>
       <c r="M22" t="n">
-        <v>190.4133421909763</v>
+        <v>188.1698523471753</v>
       </c>
       <c r="N22" t="n">
-        <v>185.8857385084212</v>
+        <v>183.6955938386594</v>
       </c>
       <c r="O22" t="n">
-        <v>171.6955659911443</v>
+        <v>169.6726129034323</v>
       </c>
       <c r="P22" t="n">
-        <v>146.9152180310124</v>
+        <v>145.1842321885298</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.7164817561377</v>
+        <v>100.5180368827833</v>
       </c>
       <c r="R22" t="n">
-        <v>54.61836052175193</v>
+        <v>53.97483556858602</v>
       </c>
       <c r="S22" t="n">
-        <v>21.16930794989859</v>
+        <v>20.91988673372006</v>
       </c>
       <c r="T22" t="n">
-        <v>5.190179831221878</v>
+        <v>5.129028046347641</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06625761486666236</v>
+        <v>0.06547695378316147</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I23" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J23" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K23" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L23" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M23" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N23" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O23" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P23" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q23" t="n">
         <v>405.5015080147052</v>
@@ -32742,7 +32742,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H24" t="n">
         <v>19.40387634380021</v>
@@ -32791,10 +32791,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K24" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L24" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M24" t="n">
         <v>509.0653662040589</v>
@@ -32803,7 +32803,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O24" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P24" t="n">
         <v>383.6539365378626</v>
@@ -32815,10 +32815,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S24" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T24" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U24" t="n">
         <v>0.1321789941675764</v>
@@ -32864,19 +32864,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I25" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J25" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K25" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L25" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M25" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N25" t="n">
         <v>257.7559726067959</v>
@@ -32891,16 +32891,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R25" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S25" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T25" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I26" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J26" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K26" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L26" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M26" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N26" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O26" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P26" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q26" t="n">
         <v>405.5015080147052</v>
@@ -32979,7 +32979,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H27" t="n">
         <v>19.40387634380021</v>
@@ -33028,10 +33028,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K27" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L27" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M27" t="n">
         <v>509.0653662040589</v>
@@ -33040,7 +33040,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O27" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P27" t="n">
         <v>383.6539365378626</v>
@@ -33052,10 +33052,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S27" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T27" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U27" t="n">
         <v>0.1321789941675764</v>
@@ -33101,19 +33101,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I28" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J28" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K28" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L28" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M28" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N28" t="n">
         <v>257.7559726067959</v>
@@ -33128,16 +33128,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R28" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S28" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T28" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>28.47028331217712</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K11" t="n">
-        <v>93.92060305664472</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L11" t="n">
-        <v>153.7913200468046</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M11" t="n">
-        <v>203.1118067186566</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N11" t="n">
-        <v>211.0587806020923</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O11" t="n">
-        <v>185.8268607441513</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P11" t="n">
-        <v>123.7494305716378</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q11" t="n">
-        <v>44.27132869117364</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>75.4384048176305</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L12" t="n">
-        <v>148.2266905659563</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M12" t="n">
-        <v>192.5259485823473</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N12" t="n">
-        <v>212.1757243460657</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O12" t="n">
-        <v>171.6550983098281</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P12" t="n">
-        <v>118.240000033741</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.61687799649641</v>
+        <v>89.75123316395896</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.3800667966406</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L13" t="n">
-        <v>192.2171678043497</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M13" t="n">
-        <v>213.1601163458916</v>
+        <v>146.8505817925169</v>
       </c>
       <c r="N13" t="n">
-        <v>213.581156752698</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O13" t="n">
-        <v>181.0986910958077</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P13" t="n">
-        <v>131.2029511204531</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q13" t="n">
-        <v>6.56026382749684</v>
+        <v>3.452847899353372</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>28.47028331217712</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K14" t="n">
-        <v>93.92060305664472</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L14" t="n">
-        <v>153.7913200468046</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M14" t="n">
-        <v>203.1118067186566</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N14" t="n">
-        <v>211.0587806020923</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O14" t="n">
-        <v>185.8268607441513</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P14" t="n">
-        <v>123.7494305716378</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.27132869117364</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>97.3216690912724</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>75.4384048176305</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L15" t="n">
-        <v>148.2266905659563</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M15" t="n">
-        <v>192.5259485823473</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N15" t="n">
-        <v>212.1757243460657</v>
+        <v>200.6633754067318</v>
       </c>
       <c r="O15" t="n">
-        <v>171.6550983098281</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P15" t="n">
-        <v>118.240000033741</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.61687799649641</v>
+        <v>89.75123316395896</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.3800667966406</v>
+        <v>102.0686157531411</v>
       </c>
       <c r="L16" t="n">
-        <v>192.2171678043497</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M16" t="n">
-        <v>213.1601163458916</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N16" t="n">
-        <v>213.581156752698</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O16" t="n">
-        <v>181.0986910958077</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P16" t="n">
-        <v>131.2029511204531</v>
+        <v>69.67512249932244</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.56026382749684</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>48.79360410122138</v>
+        <v>46.08558691409718</v>
       </c>
       <c r="K17" t="n">
-        <v>124.3799926419923</v>
+        <v>120.3213768595313</v>
       </c>
       <c r="L17" t="n">
-        <v>191.5788862308969</v>
+        <v>186.5438144653969</v>
       </c>
       <c r="M17" t="n">
-        <v>245.1577549829817</v>
+        <v>239.5552674893972</v>
       </c>
       <c r="N17" t="n">
-        <v>253.7850762670198</v>
+        <v>248.0919346685687</v>
       </c>
       <c r="O17" t="n">
-        <v>226.1720901654397</v>
+        <v>220.7962179925114</v>
       </c>
       <c r="P17" t="n">
-        <v>158.1831504628356</v>
+        <v>153.5949679384398</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.12961830201212</v>
+        <v>66.68408430574053</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>136.1442454542597</v>
+        <v>8.440333628974628</v>
       </c>
       <c r="K18" t="n">
-        <v>145.6913342595096</v>
+        <v>93.37014192739235</v>
       </c>
       <c r="L18" t="n">
-        <v>176.0447973622975</v>
+        <v>172.3381240238361</v>
       </c>
       <c r="M18" t="n">
-        <v>224.9883671183463</v>
+        <v>303.523440500631</v>
       </c>
       <c r="N18" t="n">
-        <v>245.4973265057716</v>
+        <v>323.6878872773841</v>
       </c>
       <c r="O18" t="n">
-        <v>202.1378543825707</v>
+        <v>198.0761250907514</v>
       </c>
       <c r="P18" t="n">
-        <v>142.7050991893637</v>
+        <v>139.4452033442989</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.97114888227995</v>
+        <v>42.79199484041385</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>118.8592278401078</v>
+        <v>117.1964197322509</v>
       </c>
       <c r="L19" t="n">
-        <v>208.1861975152154</v>
+        <v>206.0583756219531</v>
       </c>
       <c r="M19" t="n">
-        <v>229.9972191528169</v>
+        <v>227.7537293090159</v>
       </c>
       <c r="N19" t="n">
-        <v>230.0179108876498</v>
+        <v>227.827766217888</v>
       </c>
       <c r="O19" t="n">
-        <v>196.280693905184</v>
+        <v>194.257740817472</v>
       </c>
       <c r="P19" t="n">
-        <v>144.193777295906</v>
+        <v>142.4627914534233</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.55443850444335</v>
+        <v>14.35599363108888</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>48.79360410122135</v>
+        <v>46.08558691409718</v>
       </c>
       <c r="K20" t="n">
-        <v>124.3799926419922</v>
+        <v>120.3213768595313</v>
       </c>
       <c r="L20" t="n">
-        <v>191.5788862308968</v>
+        <v>186.5438144653969</v>
       </c>
       <c r="M20" t="n">
-        <v>245.1577549829817</v>
+        <v>239.5552674893972</v>
       </c>
       <c r="N20" t="n">
-        <v>253.7850762670197</v>
+        <v>248.0919346685687</v>
       </c>
       <c r="O20" t="n">
-        <v>226.1720901654396</v>
+        <v>220.7962179925114</v>
       </c>
       <c r="P20" t="n">
-        <v>158.1831504628356</v>
+        <v>153.5949679384398</v>
       </c>
       <c r="Q20" t="n">
-        <v>70.12961830201206</v>
+        <v>66.68408430574053</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>136.1442454542596</v>
+        <v>134.5313689693835</v>
       </c>
       <c r="K21" t="n">
-        <v>145.69133425951</v>
+        <v>93.37014192739235</v>
       </c>
       <c r="L21" t="n">
-        <v>176.0447973622974</v>
+        <v>172.3381240238361</v>
       </c>
       <c r="M21" t="n">
-        <v>224.9883671183463</v>
+        <v>220.6628541648484</v>
       </c>
       <c r="N21" t="n">
-        <v>245.4973265057715</v>
+        <v>241.05733009536</v>
       </c>
       <c r="O21" t="n">
-        <v>202.1378543825707</v>
+        <v>198.0761250907514</v>
       </c>
       <c r="P21" t="n">
-        <v>142.7050991893637</v>
+        <v>139.4452033442989</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.97114888227992</v>
+        <v>82.19210301781183</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>118.8592278401078</v>
+        <v>117.1964197322509</v>
       </c>
       <c r="L22" t="n">
-        <v>208.1861975152153</v>
+        <v>206.0583756219531</v>
       </c>
       <c r="M22" t="n">
-        <v>229.9972191528169</v>
+        <v>227.7537293090159</v>
       </c>
       <c r="N22" t="n">
-        <v>230.0179108876497</v>
+        <v>227.827766217888</v>
       </c>
       <c r="O22" t="n">
-        <v>196.2806939051839</v>
+        <v>194.257740817472</v>
       </c>
       <c r="P22" t="n">
-        <v>144.1937772959059</v>
+        <v>142.4627914534233</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.55443850444334</v>
+        <v>14.35599363108888</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K23" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L23" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M23" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N23" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O23" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P23" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q23" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R23" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,10 +36439,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K24" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L24" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="M24" t="n">
         <v>366.9313322820406</v>
@@ -36451,16 +36451,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O24" t="n">
-        <v>335.4246819961231</v>
+        <v>497.431991788258</v>
       </c>
       <c r="P24" t="n">
-        <v>514.7099619750467</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q24" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K25" t="n">
         <v>173.4247593423491</v>
@@ -36524,7 +36524,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M25" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N25" t="n">
         <v>301.8881449860245</v>
@@ -36597,28 +36597,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K26" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L26" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M26" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N26" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O26" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P26" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q26" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R26" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K27" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676405</v>
       </c>
       <c r="L27" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M27" t="n">
-        <v>520.9482342985602</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N27" t="n">
-        <v>640.5848321000391</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O27" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P27" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q27" t="n">
         <v>116.4807223308546</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K28" t="n">
         <v>173.4247593423491</v>
@@ -36761,7 +36761,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M28" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N28" t="n">
         <v>301.8881449860245</v>
@@ -36913,7 +36913,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K30" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313199</v>
       </c>
       <c r="L30" t="n">
         <v>297.6803606378502</v>
@@ -36928,13 +36928,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P30" t="n">
-        <v>418.4229873015963</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q30" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R30" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>62.98022089091745</v>
+        <v>117.9333660065836</v>
       </c>
       <c r="K33" t="n">
-        <v>373.0365088578708</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L33" t="n">
         <v>297.6803606378502</v>
@@ -37165,13 +37165,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P33" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q33" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R33" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,7 +37387,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K36" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L36" t="n">
         <v>297.6803606378502</v>
@@ -37402,10 +37402,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P36" t="n">
-        <v>443.006875911368</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q36" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K39" t="n">
-        <v>379.9148430313199</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L39" t="n">
-        <v>297.6803606378502</v>
+        <v>562.7107934893655</v>
       </c>
       <c r="M39" t="n">
         <v>366.9313322820406</v>
@@ -37642,7 +37642,7 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q39" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K42" t="n">
-        <v>397.6203974676403</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L42" t="n">
         <v>297.6803606378502</v>
@@ -37873,16 +37873,16 @@
         <v>391.197099592874</v>
       </c>
       <c r="O42" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="P42" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q42" t="n">
-        <v>116.4807223308546</v>
+        <v>190.1413181408527</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K45" t="n">
-        <v>355.3309544215487</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L45" t="n">
         <v>297.6803606378502</v>
@@ -38113,13 +38113,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P45" t="n">
-        <v>249.6795291235323</v>
+        <v>514.7099619750462</v>
       </c>
       <c r="Q45" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R45" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
